--- a/project2/testdata/walking_running_niklas_20hz.xlsx
+++ b/project2/testdata/walking_running_niklas_20hz.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9972"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="22104" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="walking_running_niklas_20hz" sheetId="1" r:id="rId1"/>
@@ -2935,6 +2935,4584 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>walking_running_niklas_20hz!$I$2:$I$755</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="754"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2949999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3854545454545386E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6690909090909007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1018181818181742E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6627272727272644E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3163636363636297E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13436363636363627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16002727272727271</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14695454545454542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16603636363636362</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12180909090909089</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0754545454545454E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3263636363636395E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7909090909090901E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13197272727272727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20747272727272731</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13871818181818185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1868090909090909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16577272727272729</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10067272727272729</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8527272727272741E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11951818181818184</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13883636363636362</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26051818181818187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27995454545454551</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28034545454545456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18808181818181821</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11475454545454547</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.5754545454545486E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14590000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20767272727272726</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.298509090909091</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4425818181818183</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45935454545454546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35530000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19328181818181822</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.5945454545454547E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.6727272727272732E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.12411818181818181</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19284545454545451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.30710909090909083</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.38674545454545445</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39233636363636359</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.31196363636363633</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16780909090909088</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.6554545454545421E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5881818181818179E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.16078181818181819</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22289090909090914</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31701818181818187</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.37270909090909093</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.36256363636363642</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.35926363636363645</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.23247272727272736</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.10117272727272733</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.0281818181818279E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.11744545454545459</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.17586363636363642</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.2675454545454547</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.38185454545454561</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.46634545454545467</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.43190000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.27881818181818185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.10622727272727271</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6336363636363614E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14403636363636363</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.20845454545454539</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.31619999999999993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.47059090909090906</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.50200909090909096</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.38353636363636368</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.16265454545454547</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.1372727272727296E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.0627272727272775E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1179818181818182</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.19666363636363637</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.32520909090909095</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.41335454545454553</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.54044545454545467</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.38969090909090925</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.21718181818181834</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.14824545454545468</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.15675454545454562</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.18896363636363656</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.24592727272727277</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.35563636363636364</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.48629090909090905</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.51310000000000011</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.43169090909090924</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.1696454545454546</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.3636363636363698E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.1108636363636364</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.15828181818181825</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.19305454545454556</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.30960000000000015</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.46610000000000018</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.46116363636363644</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.32036363636363646</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.15578181818181822</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.872727272727278E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.5745454545454569E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.14800909090909092</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.16720909090909089</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.24975454545454545</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.39071818181818174</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.39579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.29230909090909091</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.18066363636363636</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.10633636363636366</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.8863636363636372E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.12603636363636364</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.16291818181818182</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.24087272727272727</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.3347</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.33928181818181824</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.41123636363636362</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.29957272727272732</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.1776363636363637</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.13599090909090908</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.17469090909090906</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.23707272727272732</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.27299090909090917</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.37484545454545465</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.38699090909090916</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.40886363636363643</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.32970000000000005</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.8190909090909144E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.6618181818181834E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.3645454545454542E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.13202727272727274</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.15209090909090908</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.21484545454545459</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.30334545454545458</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.42453636363636366</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.33709090909090911</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.18630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.12302727272727272</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.12790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.18520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.21949999999999995</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.33535454545454552</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.43575454545454551</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.45786363636363636</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.34520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9.1145454545454516E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.0590909090909071E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.1999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.5854545454545428E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.14318181818181819</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.23761818181818184</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.29847272727272733</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.42670909090909087</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.34990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.20464545454545452</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.1399</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.13036363636363638</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.17636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.21103636363636366</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.33222727272727282</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.46040909090909088</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.4404636363636365</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.38610909090909101</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.12793636363636374</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.2054545454545513E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.6918181818181868E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.8418181818181918E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.1325909090909092</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.21485454545454558</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.30731818181818193</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.41361818181818183</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.30734545454545453</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.20621818181818183</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.14021818181818183</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.12637272727272728</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.14955454545454544</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.16297272727272724</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.26301818181818182</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.38378181818181822</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.41809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.39097272727272719</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.15470909090909088</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.4563636363636304E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.152727272727266E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>8.9199999999999904E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.10114545454545451</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.17873636363636358</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.29899090909090908</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.2991454545454546</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.34350909090909093</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.24191818181818184</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.13549090909090911</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.6336363636363623E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.12169090909090909</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.1586636363636364</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.19128181818181825</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.32939090909090923</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.37862727272727281</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.36968181818181822</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.31553636363636373</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.12437272727272736</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>6.1509090909090978E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6.3472727272727347E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.1077272727272728</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.14326363636363645</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.25676363636363642</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.39631818181818185</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.43545454545454554</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.3527818181818182</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.22416363636363637</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.14256363636363636</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.14868181818181817</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.18117272727272724</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.21201818181818186</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.32319090909090914</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.4971181818181819</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.47560909090909098</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.34496363636363636</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.15590909090909094</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>8.1527272727272754E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>8.307272727272727E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.10916363636363639</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.13571818181818188</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.27644545454545461</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.42028181818181826</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.47998181818181818</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.33624545454545457</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.21028181818181818</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.12647272727272726</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.11970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.16932727272727274</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.1976636363636364</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.29802727272727264</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.46462727272727272</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.42290909090909101</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.32991818181818189</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.15370000000000006</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>6.4318181818181844E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6.0427272727272857E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9.6009090909091016E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.11484545454545464</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.16260000000000011</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.24067272727272729</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.25297272727272735</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.26191818181818183</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.19232727272727279</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.1107181818181818</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>9.1554545454545444E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.11461818181818183</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.11220909090909091</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.12843636363636365</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.26335454545454556</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.34700909090909104</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.36076363636363645</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.31115454545454563</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.14487272727272735</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.11655454545454554</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.12872727272727277</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.13791818181818191</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.12338181818181827</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.17615454545454548</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.30505454545454547</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.43049090909090909</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.31657272727272717</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.25271818181818173</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.18862727272727264</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.14709090909090902</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.15479090909090898</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.16334545454545446</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.19941818181818174</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.30249090909090903</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.44935454545454545</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.32559090909090904</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.10671818181818184</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.11339090909090911</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>6.6445454545454599E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.5809090909090942E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9.6327272727272775E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.10175454545454551</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.10268181818181819</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.15537272727272736</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.18772727272727285</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.13960909090909099</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.16741818181818188</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.14739090909090913</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.10198181818181823</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.10203636363636366</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.12596363636363642</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.12539090909090916</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.113009090909091</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.19370000000000009</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.22087272727272733</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.21030909090909097</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.14136363636363636</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.11321818181818183</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>9.9563636363636382E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9.9900000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.12137272727272728</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.11870909090909092</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>9.2618181818181794E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.14205454545454543</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.16812727272727274</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.14066363636363638</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>9.6163636363636368E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.10646363636363637</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.10253636363636365</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8.3618181818181828E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>8.3945454545454559E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.10993636363636368</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.10409090909090914</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.14240000000000008</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.18000909090909098</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.17239090909090909</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.14490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.13499090909090913</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7.2409090909090937E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>4.7227272727272764E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5.8363636363636416E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>7.4363636363636396E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3.7527272727272763E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1.7827272727272744E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>5.6781818181818204E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>4.1727272727272752E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.14630909090909092</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.25391818181818182</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.21742727272727266</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.20023636363636357</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.17889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.179090909090909</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.18113636363636357</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.17721818181818172</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.25203636363636356</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.3194272727272725</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.35330909090909085</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.22779999999999989</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7.6199999999999948E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4.6818181818181752E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4.3899999999999946E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>9.2745454545454464E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.10411818181818172</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>8.9754545454545434E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.18688181818181818</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.22462727272727268</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.24565454545454546</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.21376363636363635</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.15522727272727269</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.13715454545454542</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.13579999999999995</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.15206363636363632</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.13699999999999993</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.14329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.24108181818181817</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.26077272727272732</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.28029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.16509090909090907</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>8.6863636363636365E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>4.8500000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>6.0672727272727295E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.10045454545454549</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>9.9763636363636443E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.11129090909090915</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.16650909090909091</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.13919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.2117818181818181</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.17845454545454545</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.14908181818181815</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.14289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.14129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.1505181818181818</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.12029090909090909</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.14435454545454543</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.22380000000000005</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.30593636363636356</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.33914545454545453</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.16978181818181817</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>8.9290909090909074E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>6.2845454545454538E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>8.1281818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.10830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.10824545454545453</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.14490909090909085</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.27101818181818177</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.27509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.23113636363636367</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.19097272727272732</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.16452727272727277</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.11046363636363637</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>8.2727272727272746E-2</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.18927272727272718</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.36058181818181817</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.48694545454545463</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.41504545454545455</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.22580909090909093</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.3732363636363637</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.4988272727272729</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.54000909090909088</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.54974545454545454</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.56459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.55219090909090918</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.45459090909090932</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.99192727272727266</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.4572545454545456</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.6509090909090907</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.6422272727272729</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.3672</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.1955363636363634</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.126290909090909</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.5993999999999999</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.8286</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.888818181818182</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.827681818181818</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.0470999999999999</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.48283636363636373</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.1353636363636368</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.6028636363636366</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.608418181818182</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.4990727272727276</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.4079727272727274</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.91207272727272748</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.7229818181818182</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>2.3566636363636366</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2.3851818181818185</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2.3941818181818189</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>2.2956545454545458</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.4277272727272725</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.3188363636363636</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>2.2244909090909091</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2.3384727272727273</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>2.349890909090909</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2.3129909090909089</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.2456636363636362</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.55657272727272733</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2.3909363636363632</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2.7028545454545454</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2.7134181818181817</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2.7167909090909088</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2.3414181818181818</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.4053090909090911</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2.2049727272727271</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2.9567454545454548</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>3.0217181818181817</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>3.0304000000000002</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>3.0254545454545463</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.1484818181818182</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.98646363636363621</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2.2734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2.3417727272727271</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2.3619909090909093</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>2.3657363636363642</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.4418727272727276</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.90399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.6145818181818179</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>2.0006181818181812</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>2.0251999999999999</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2.0285636363636361</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.871454545454545</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.63017272727272722</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.7050545454545456</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.9808272727272729</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.9964727272727272</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>2.0027727272727271</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.7806999999999997</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.0098</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.386181818181818</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>2.2989181818181819</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>2.4068545454545451</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>2.4134999999999995</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>2.3554909090909089</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.208309090909091</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.97062727272727267</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>2.1636636363636366</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2.2680909090909096</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>2.2780818181818181</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>2.2740636363636368</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.5101090909090913</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.5945454545454546</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.5858727272727273</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.875881818181818</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.9059181818181818</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.9071909090909094</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.8463818181818183</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.63609090909090893</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.67318181818181799</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.5321363636363634</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.5756454545454543</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.5825545454545453</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.5652363636363631</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0.4647090909090909</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0.21695454545454548</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.1065454545454545</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.3076454545454546</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.3356363636363635</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.333281818181818</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1.1802272727272727</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.31305454545454536</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>2.1080636363636365</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>2.5113363636363633</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>2.5198</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>2.5220545454545449</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>2.4765727272727269</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.5718090909090909</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2.0446454545454547</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>3.0725818181818183</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>3.1483272727272724</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>3.1539272727272727</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>3.1435363636363634</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.301818181818182</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>0.92851818181818191</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>2.7511272727272731</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>2.8710181818181821</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>2.8837545454545461</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>2.8826090909090918</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>2.2309727272727273</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.1905272727272729</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.9297909090909096</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>2.2517363636363639</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>2.3146727272727272</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>2.3255636363636363</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>2.2806454545454549</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0.44690909090909092</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1.9997090909090909</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>2.5270545454545457</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>2.5417000000000001</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>2.5288636363636363</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>2.5206363636363638</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1.7053727272727273</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1.4205909090909092</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>2.3723818181818177</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>2.5128909090909088</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>2.5379727272727268</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>2.535209090909091</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0.85649090909090908</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.3287363636363636</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>2.3613818181818185</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>2.6131545454545453</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>2.6225363636363634</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>2.6284272727272726</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>2.5925727272727275</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>1.5817181818181822</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>2.626554545454546</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>3.4026636363636369</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>3.4671000000000003</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>3.472563636363637</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>3.4538727272727283</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>1.392718181818182</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>1.1901818181818182</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>2.9071363636363632</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>2.9690545454545454</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>2.9701999999999997</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>2.970327272727272</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>1.7866181818181817</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>1.0028545454545457</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>2.0548272727272727</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>2.3826727272727273</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>2.4181181818181816</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>2.422009090909091</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>2.3624727272727273</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0.63251818181818165</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0.62849090909090899</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>1.7497454545454545</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>1.7935636363636365</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>1.7960818181818183</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>1.7975000000000003</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0.68931818181818194</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0.40018181818181825</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>1.049718181818182</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>1.2674545454545454</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>1.3080727272727273</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>1.3134454545454544</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>1.2450363636363635</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0.1421090909090908</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>2.0145636363636368</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>2.4702545454545457</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>2.4925000000000002</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>2.5051454545454543</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>2.4680090909090908</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>1.7860818181818183</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>1.5727090909090911</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>2.6838454545454549</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>2.9149272727272728</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>2.9325727272727273</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>2.9103090909090912</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>0.99300909090909106</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0.53178181818181836</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>2.5874636363636365</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>3.115072727272727</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>3.1296000000000004</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>3.1363909090909092</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>3.1280636363636365</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>1.9762363636363636</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>1.7446545454545452</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>2.9911272727272729</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>3.215190909090909</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>3.238963636363636</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>3.2327454545454546</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>1.1356454545454548</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.5904636363636363</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.97304545454545455</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>2.1110545454545453</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>2.136036363636364</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>2.1447727272727275</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>2.1418909090909088</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.88000909090909074</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.68644545454545425</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>1.7082636363636361</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>1.9756454545454545</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>2.0106090909090906</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>2.0107090909090908</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.6091727272727274</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.46855454545454561</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1.3774636363636363</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>2.2504000000000004</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>2.2670818181818184</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>2.2701545454545458</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>2.2373181818181824</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>1.1912090909090909</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.92364545454545455</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>2.2195545454545456</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>2.6078454545454548</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>2.6494181818181812</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>2.6569090909090907</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>1.7232363636363635</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0.85219090909090933</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.98840000000000006</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>2.2326181818181818</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>2.3043727272727272</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>2.3217999999999996</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>2.3224727272727268</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.99331818181818188</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.61980909090909109</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>1.9030454545454545</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>2.1832545454545458</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>2.3164090909090911</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>2.3326545454545458</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>2.1762636363636365</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>0.92669090909090879</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0.89984545454545428</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>2.7280636363636366</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>2.8881181818181818</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>2.8971727272727277</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>2.8766727272727279</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>1.5494090909090914</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>1.2572272727272731</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>1.186718181818182</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>3.1215272727272732</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>3.2012454545454556</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>3.2249636363636371</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>3.1879818181818185</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>1.3400999999999998</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>1.1778000000000002</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>1.4410454545454543</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>2.6642090909090914</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>2.8145636363636362</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>2.846318181818182</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>2.7930272727272727</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>0.83232727272727269</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>0.75530909090909093</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>0.79720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>2.6620272727272734</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>2.7089090909090916</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>2.7123636363636368</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>2.4403909090909095</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>1.2156727272727275</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>1.0661090909090913</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>1.8860545454545454</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>2.8805090909090914</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>2.9531272727272726</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>2.9574909090909087</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>2.8926545454545445</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>1.0174454545454548</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>0.98870909090909109</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>2.6611909090909092</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>3.1014454545454551</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>3.1110000000000011</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>3.1090000000000013</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>2.2538090909090909</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>1.2473727272727273</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>1.255090909090909</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>2.7963272727272721</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>2.8477090909090905</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>2.8558090909090903</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>2.8377818181818175</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>1.1583999999999994</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>0.72096363636363592</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>3.01540909090909</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>3.6167454545454545</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>3.6477909090909084</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>3.6527090909090902</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>3.5681727272727271</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>2.0171181818181818</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>1.9871454545454541</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>3.7637909090909094</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>3.9055181818181821</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>3.9251454545454538</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>3.9239545454545448</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>1.6262000000000001</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>1.0512909090909093</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>2.4520363636363638</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>2.7986909090909093</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>2.9324909090909088</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>2.9697545454545451</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>2.9486181818181816</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>1.1709272727272726</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>1.1630727272727273</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>2.2110454545454545</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>2.3834090909090908</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>2.4024545454545456</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>2.3864636363636365</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>0.96244545454545471</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0.65517272727272757</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>1.6327454545454545</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>1.8022363636363636</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>1.9546727272727276</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>2.0829454545454551</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>1.9626727272727278</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0.91113636363636352</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>1.6174545454545457</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>1.7924</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>1.855609090909091</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>1.8583909090909094</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>0.78387272727272728</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>0.66675454545454538</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>1.1615454545454542</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>1.2579090909090906</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>1.8235999999999997</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>1.8856818181818178</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>1.6728818181818179</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>1.0176545454545454</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>1.213472727272727</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>1.8780818181818177</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>2.0373727272727269</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>2.0498363636363632</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>1.9949181818181814</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>1.4268181818181813</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>1.2796181818181813</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>1.3076909090909088</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>1.4127090909090905</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>1.7312181818181813</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>1.8063999999999993</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>1.4447636363636358</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>0.74845454545454537</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>0.90961818181818177</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>1.0458199999999997</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>1.2300111111111109</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>1.3950249999999997</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>1.6033285714285712</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>0.9200666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>walking_running_niklas_20hz!$H$2:$H$755</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="754"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13023888888888888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11641052631578944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11111052631578942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2142105263157831E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4394736842105222E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6642105263157848E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2110526315789427E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6963157894736834E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1404</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16173157894736842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20530526315789474</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20366842105263158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17541578947368419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13657368421052635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1138578947368421</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11080526315789473</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10045263157894736</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11095263157894739</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1219263157894737</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20983157894736842</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23895789473684217</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21806842105263158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19958421052631584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17831052631578947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19020526315789477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20635263157894737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20722105263157897</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23656842105263165</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27882105263157902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24731578947368421</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21357894736842103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19274210526315794</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1984157894736843</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.21440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22076315789473691</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28762631578947379</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.29362631578947362</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28353684210526314</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.21366842105263159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19432631578947371</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20265263157894736</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2361789473684211</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24298947368421056</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.27770526315789479</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26372105263157897</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.24129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.23567894736842104</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.21242631578947369</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.20177368421052638</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.20460000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.22368947368421055</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.23261052631578952</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27942631578947374</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.28626315789473694</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.32378947368421057</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.28662631578947373</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.22211052631578951</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.20002631578947372</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.20651052631578948</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.22965263157894744</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.23220000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.27771052631578957</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.32152105263157899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35428421052631581</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.29840526315789478</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.20996315789473685</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.19335789473684212</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.20442631578947368</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.22764210526315784</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.25237368421052625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.31611578947368418</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.31661578947368418</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.36952631578947376</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.27714210526315797</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.22997368421052639</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.22281052631578954</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.2392157894736843</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.25277368421052637</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.26341578947368433</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.31285263157894744</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.35084736842105274</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.34072631578947377</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.27590526315789488</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.24569473684210538</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.23718421052631591</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.2528368421052633</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.27355789473684217</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.2826789473684212</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.3181578947368422</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.34498421052631589</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.34053157894736857</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.22343157894736845</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.2053052631578948</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.20153684210526318</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.20951052631578956</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.23212105263157906</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.24024210526315801</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.27577368421052645</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.30298947368421059</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.2657684210526316</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.21715789473684213</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.19520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.18677894736842104</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.19675263157894735</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.21032105263157885</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.21219473684210524</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.25980526315789471</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.25477368421052632</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.20235263157894742</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.27408421052631576</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.25373157894736842</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.22981052631578947</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.22256315789473688</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.23827368421052633</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.24831578947368421</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.2715631578947369</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.28461578947368416</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.25764736842105274</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.2623368421052632</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.22400000000000012</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.21475789473684215</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.21336842105263168</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.22678947368421068</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.2260315789473685</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.23200526315789488</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.23324736842105279</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.25341052631578953</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.33397368421052637</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.21472105263157898</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.19675789473684213</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.1923842105263158</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.2100736842105263</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.21945263157894732</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.21661578947368423</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.26213684210526322</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.26726842105263166</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.27427894736842107</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.21655263157894736</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.19586315789473679</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.18716315789473684</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.19987368421052629</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.20524210526315786</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.21653157894736844</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.26896842105263152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.26503157894736845</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.33355789473684211</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.22405789473684207</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.1976</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.18968947368421055</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.20011052631578949</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.21522105263157895</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.2148315789473684</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.27050526315789475</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.28893157894736837</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.27169473684210532</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.22348947368421057</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.20777368421052636</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.20142631578947376</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.21284210526315797</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.22235263157894744</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.22137894736842109</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.25671578947368423</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.2551842105263159</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.33716842105263167</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.21982631578947376</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.18851052631578949</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.1861894736842106</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.19994210526315798</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.21253684210526325</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.20508947368421063</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.2524473684210527</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.25122631578947374</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.23222105263157891</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.22653157894736842</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.20319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.18892631578947358</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.19399473684210525</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.20487894736842097</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.2015210526315788</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.23925263157894727</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.25379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.24771578947368417</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.21063684210526318</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.1943421052631579</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.18558421052631577</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.1777947368421052</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.1862157894736842</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.19926842105263157</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.22126842105263156</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.23994736842105263</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.23626842105263166</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.22576842105263162</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.20404210526315794</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.19307368421052634</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.18678421052631586</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.18671052631578958</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.18852105263157909</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.21060000000000015</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.24444210526315804</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.27761578947368426</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.3188631578947369</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.24163684210526321</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.21548947368421056</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.20813684210526318</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.22337894736842112</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.22122105263157907</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.2176000000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.26488947368421062</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.30770526315789476</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.30058947368421057</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.26330526315789476</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.22644736842105265</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.2168315789473684</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.22797368421052627</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.23458947368421054</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.23958421052631582</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.29832631578947372</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.31226842105263158</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.31332631578947373</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.25026842105263158</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.21808947368421053</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.20674736842105265</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.21321052631578949</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.22878421052631581</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.23752105263157897</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.28438421052631585</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.32146842105263157</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.25536315789473685</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.227921052631579</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.2025947368421053</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.19724210526315794</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.20587368421052635</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.21423684210526317</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.21649999999999991</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.24434736842105256</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.21681052631578951</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.18752105263157898</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.19522105263157896</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.17204210526315791</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.17027894736842111</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.18237894736842114</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.19430000000000006</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.17280526315789477</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.17415789473684209</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.19642631578947375</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.17625263157894744</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.18083157894736848</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.17665789473684218</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.19011052631578951</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.20228421052631584</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.20982105263157899</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.20664210526315796</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.19924210526315794</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.18065263157894745</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.21143157894736847</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.29920000000000008</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.20789473684210524</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.21579473684210529</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.22176315789473677</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.22226315789473688</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.2255421052631579</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.23942631578947365</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.24773684210526314</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.22190000000000004</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.2399052631578947</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.19106842105263153</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.18084210526315786</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.18966842105263157</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.18678421052631575</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.18533684210526316</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.19818421052631577</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.21302105263157892</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.19688947368421053</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.16107894736842107</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8.1352631578947399E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.13745263157894741</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.14168421052631586</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.15696842105263165</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.16355263157894742</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.15624210526315796</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.16369473684210531</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.15532631578947378</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.10332105263157904</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4.8878947368421098E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.10045263157894742</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.14132631578947372</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.15364736842105267</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.16876315789473684</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.17651052631578948</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.16562105263157897</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.16760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.17297368421052636</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.11899473684210531</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>7.6878947368421074E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6.5389473684210553E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>8.4963157894736852E-2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.11166842105263161</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.1562421052631579</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.1690526315789474</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.15199473684210529</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.14162631578947368</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.16582105263157895</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.12109473684210527</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7.3563157894736872E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>5.9336842105263167E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>8.3352631578947387E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.10330526315789475</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.13217894736842106</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.14032631578947372</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.12612631578947367</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.1170578947368421</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.13105789473684212</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.10530526315789475</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3.4078947368421056E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2.500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2.7821052631578958E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.10642105263157896</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.19094736842105264</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.20964736842105267</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.20765263157894734</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.16605263157894737</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.16047894736842103</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.15348421052631575</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.10368947368421046</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>8.0189473684210463E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.12604210526315784</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.15421578947368414</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.19638421052631574</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.20772105263157889</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.20296315789473679</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.19001578947368414</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.19802105263157888</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.21043684210526312</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.17257368421052621</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.18772631578947366</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.12553157894736836</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.12125789473684206</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.1520947368421052</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.17032631578947366</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.18355263157894733</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.17789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.1731842105263158</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.17473684210526308</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.14748421052631575</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.1272157894736842</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.13415263157894738</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.15592631578947366</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.17272105263157894</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.17527894736842101</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.17298947368421055</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.16498421052631576</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.17577894736842112</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.17897894736842107</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.13097368421052633</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.11383684210526314</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>6.5584210526315759E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.13300526315789474</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.16937368421052632</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.17962631578947366</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.17938947368421049</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.16675789473684216</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.17281052631578953</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.16245789473684216</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.12297894736842106</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.10956842105263155</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.128678947368421</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.16635263157894734</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.18101052631578946</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.19298947368421046</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.18088421052631576</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.16828947368421049</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.17169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.17104736842105264</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.14995263157894731</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.19929473684210527</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.14622631578947373</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.15917894736842106</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.19060526315789475</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.19353157894736847</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.17513684210526315</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.14163684210526314</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.20822631578947362</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.29688421052631581</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.32339473684210523</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.21312105263157899</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.13367894736842106</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.26401578947368426</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.39627894736842101</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.46685789473684214</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.46474736842105263</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.43931052631578948</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.39865789473684216</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.3875157894736842</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.71425263157894736</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.0078</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.0350947368421053</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.97387894736842118</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.96029999999999993</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.0244789473684208</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.0710263157894737</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.2811368421052631</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.2892157894736842</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.2102684210526318</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.205357894736842</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.1897368421052634</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.0712526315789475</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.4036157894736843</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.5892157894736845</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.5732157894736845</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.5654894736842104</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1.5664789473684213</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.5459947368421052</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.7124578947368418</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.7309789473684212</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.6304631578947371</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.6250789473684211</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.6087789473684215</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.5380421052631583</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.7006894736842104</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.9351105263157895</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.8606789473684209</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.833415789473684</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.8269631578947367</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.8274157894736842</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.7736684210526317</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2.357373684210526</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>2.2619157894736843</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2.2485157894736845</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2.2430368421052633</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2.2411052631578947</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2.2206684210526313</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2.1397263157894737</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2.1808315789473682</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2.1954842105263155</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2.1957526315789475</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2.1961842105263161</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2.1957052631578948</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2.0694894736842109</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>2.2768894736842107</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>2.2449473684210526</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2.2481105263157897</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2.2512052631578947</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2.2533210526315792</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2.3819736842105264</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.7460157894736843</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.7891947368421053</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.7977421052631579</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.7972578947368421</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.7974052631578947</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.828126315789474</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.9555210526315789</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.6831052631578944</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.6576421052631574</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.6583789473684205</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.6613263157894731</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.6657263157894733</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>2.0206105263157887</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.8124578947368422</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.834936842105263</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.8272263157894735</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.8221947368421052</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.8202999999999998</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1.7216789473684211</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.9755315789473684</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.8132315789473683</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1.8077315789473687</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.807857894736842</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.8114105263157896</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.7918315789473684</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.7659368421052635</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.7664684210526318</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.7697684210526319</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.7649631578947373</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.7597052631578949</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.7591736842105268</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.4004421052631582</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.3638052631578947</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.3266315789473686</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.3303368421052633</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.3343157894736841</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.3354315789473687</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.3301315789473684</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.157752631578947</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.2089157894736842</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.2140789473684208</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.2145105263157896</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.209457894736842</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.2008368421052629</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.6289526315789473</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.6982315789473688</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.6897210526315793</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1.6914052631578953</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.6949789473684218</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.6994842105263164</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>2.0029210526315793</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>2.1059157894736842</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>2.1250105263157892</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>2.1191999999999998</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>2.1145894736842106</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2.1135947368421055</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>2.1101894736842106</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>2.6418473684210526</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>2.5965157894736843</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>2.5912578947368425</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>2.5964631578947373</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>2.6112473684210524</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>2.6139263157894739</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>2.0218000000000003</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.9689052631578947</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.9958315789473684</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.9998368421052632</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.9967578947368425</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.9905894736842111</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>2.5705</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>2.2754263157894741</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>2.245257894736842</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>2.2493684210526319</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>2.2532999999999999</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>2.2554368421052633</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>2.2537894736842112</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1.7765578947368419</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>1.7924999999999998</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>1.7965684210526316</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1.7894631578947369</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1.7747473684210526</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>1.7764947368421051</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>2.4951263157894736</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>2.4586105263157898</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>2.4315368421052632</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>2.4307789473684212</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>2.4343789473684208</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>2.4335526315789471</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>2.1554105263157899</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>2.3035000000000005</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>2.3252210526315791</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>2.3210999999999999</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>2.316789473684211</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>2.3141157894736848</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>2.3252157894736842</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>2.7411315789473689</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>2.6948736842105263</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>2.6846157894736842</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>2.6854631578947363</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>2.6939052631578946</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>2.6937789473684206</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>2.1477421052631578</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>2.1876631578947365</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>2.1984421052631578</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>2.1946105263157891</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>2.1919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>2.1915947368421045</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1.5380999999999998</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1.727663157894737</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1.7165736842105261</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1.7233105263157891</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>1.7348263157894734</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>1.7405105263157894</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>1.7302947368421049</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>1.1230947368421051</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>1.2094736842105263</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>1.2297157894736841</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1.2323473684210529</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>1.2245526315789477</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>1.2293368421052635</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>1.693263157894737</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>1.7740157894736845</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>1.7778894736842108</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>1.788642105263158</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>1.7913947368421055</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>1.7909473684210533</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>1.756126315789474</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>1.7705105263157894</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>1.8815578947368421</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>1.8825210526315788</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>1.8735947368421053</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>1.8690842105263157</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>1.8502052631578947</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>2.6681631578947367</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>2.8583157894736844</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>2.8459631578947366</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>2.8463368421052628</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>2.8463000000000003</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>2.8323736842105269</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>1.7252947368421057</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>2.184078947368421</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>2.291994736842105</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>2.2939263157894736</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>2.2929473684210531</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>2.2915947368421059</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>2.2896473684210537</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>1.8555000000000004</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>2.380936842105263</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>2.3851473684210527</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>2.3891684210526316</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>2.3904368421052631</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>2.3856842105263159</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>1.1914052631578951</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>1.479457894736842</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>1.6248684210526314</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>1.6398263157894739</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>1.6427578947368422</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>1.6429894736842106</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>1.6421421052631575</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>1.450921052631579</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>1.8306052631578948</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1.8277684210526313</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.8283947368421052</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>1.8292157894736842</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1.8272578947368421</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1.5962684210526319</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1.7026421052631584</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1.9159105263157896</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>1.935152631578948</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>1.94031052631579</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>1.9391052631578953</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>1.9265631578947378</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1.4110052631578947</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1.9771684210526312</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>1.9992894736842104</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>2.0073631578947366</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>2.009231578947368</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>2.0064526315789468</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>1.4772684210526312</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>1.7340526315789471</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>1.8917789473684208</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>1.9658842105263157</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>1.9817578947368419</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>1.9812999999999996</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>1.978931578947368</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>1.2352473684210525</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>2.076963157894737</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>2.147426315789474</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>2.1455526315789477</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>2.1450473684210527</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>2.137705263157895</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>2.0474157894736846</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>1.3603631578947371</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>2.4548473684210528</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>2.4904526315789477</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>2.5014263157894741</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>2.5058421052631581</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>2.4939736842105269</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>1.7275473684210529</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>1.7158526315789473</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>2.3464052631578944</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>2.4167052631578949</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>2.4353421052631581</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>2.4408736842105263</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>2.4157578947368421</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>1.3483315789473682</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>1.2908947368421053</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>2.3697052631578948</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>2.3968473684210529</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>2.4008368421052628</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>2.4008421052631577</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>2.3631684210526318</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>1.2267263157894734</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>1.673915789473684</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>2.241452631578948</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>2.2797894736842106</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>2.284715789473684</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>2.2837052631578945</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>2.1244631578947368</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>1.4268210526315794</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>2.3120421052631586</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>2.5485473684210529</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>2.5472578947368425</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>2.5448000000000004</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>2.5414684210526315</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>2.5020789473684211</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>1.4652473684210527</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>2.3353263157894739</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>2.3620631578947369</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>2.3649684210526321</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>2.3659368421052638</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>2.3654736842105266</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>1.874021052631579</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>2.6253578947368421</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>2.9290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>2.9411157894736837</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>2.9421105263157896</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>2.9419842105263156</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>2.9307210526315783</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>1.9718263157894733</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>2.7484315789473679</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>2.8259210526315788</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>2.8379789473684212</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>2.8409473684210518</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>2.8446789473684206</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>2.8110105263157892</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>2.7417894736842103</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>2.9137315789473686</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>2.9863789473684212</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>3.0071263157894741</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>3.0082684210526311</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>3.0089368421052627</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>1.7535157894736839</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>2.0241526315789473</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>2.1089368421052637</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>2.1208473684210527</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>2.126863157894737</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>2.1311894736842105</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>2.1425894736842102</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>1.7526157894736842</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>1.7894368421052633</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>1.8674684210526318</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>1.9430894736842101</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>1.9483157894736842</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>1.9430105263157895</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>1.2457052631578951</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>1.4369736842105265</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>1.4668105263157898</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>1.4861578947368423</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>1.5114052631578954</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>1.528531578947369</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>1.5020947368421058</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>1.2598631578947368</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>1.2914842105263158</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>1.6131894736842105</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>1.6530842105263157</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>1.6570105263157895</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>1.6468315789473686</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>1.2240736842105264</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>1.5300684210526316</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>1.5592842105263156</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>1.5093631578947366</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>1.5207631578947367</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>1.5584157894736841</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>1.4759473684210527</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>1.4338526315789473</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>1.4332631578947368</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>1.5849947368421049</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>1.6167315789473682</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>1.6066947368421052</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>1.5773684210526311</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>1.4134315789473679</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>1.4055055555555549</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>1.170882352941176</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>1.2517249999999995</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>1.3909733333333327</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>1.540671428571428</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>1.4131999999999996</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0.93976666666666653</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0.90961818181818177</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>1.0458199999999997</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>1.2300111111111109</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:spPr>
@@ -5231,4607 +9809,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408257256"/>
-        <c:axId val="408258432"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="1"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>walking_running_niklas_20hz!$I$2:$I$755</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="754"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5.2949999999999942E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6.3854545454545386E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5.6690909090909007E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>6.1018181818181742E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>5.6627272727272644E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>6.3163636363636297E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.13436363636363627</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.21739999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.16002727272727271</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.14695454545454542</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.16603636363636362</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.12180909090909089</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>8.0754545454545454E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>5.3263636363636395E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>4.7909090909090901E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.13197272727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.20747272727272731</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.16940000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.13871818181818185</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.1868090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.16577272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.10067272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>9.8527272727272741E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.11951818181818184</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.13883636363636362</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.23600000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0.26051818181818187</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0.27995454545454551</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0.28034545454545456</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.18808181818181821</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.11475454545454547</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>8.5754545454545486E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.14590000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.20767272727272726</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.298509090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.4425818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0.45935454545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.35530000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.19328181818181822</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>8.5945454545454547E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>6.6727272727272732E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.12411818181818181</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.19284545454545451</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.30710909090909083</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.38674545454545445</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.39233636363636359</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.31196363636363633</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.16780909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>9.6554545454545421E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>9.5881818181818179E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.16078181818181819</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.22289090909090914</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0.31701818181818187</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.37270909090909093</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.36256363636363642</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0.35926363636363645</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>0.23247272727272736</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>0.10117272727272733</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>7.0281818181818279E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>0.11744545454545459</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>0.17586363636363642</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>0.2675454545454547</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>0.38185454545454561</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>0.46634545454545467</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>0.43190000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>0.27881818181818185</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>0.10622727272727271</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>8.6336363636363614E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>0.14403636363636363</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>0.20845454545454539</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>0.31619999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>0.47059090909090906</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>0.50200909090909096</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>0.38353636363636368</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>0.16265454545454547</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>7.1372727272727296E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>7.0627272727272775E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>0.1179818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>0.19666363636363637</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>0.32520909090909095</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>0.41335454545454553</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>0.54044545454545467</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>0.38969090909090925</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>0.21718181818181834</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>0.14824545454545468</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>0.15675454545454562</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>0.18896363636363656</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>0.24592727272727277</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>0.35563636363636364</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>0.48629090909090905</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>0.51310000000000011</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>0.43169090909090924</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>0.1696454545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>9.3636363636363698E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>0.1108636363636364</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>0.15828181818181825</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>0.19305454545454556</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>0.30960000000000015</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>0.46610000000000018</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>0.46116363636363644</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>0.32036363636363646</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>0.15578181818181822</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>8.872727272727278E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>8.5745454545454569E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>0.14800909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>0.16720909090909089</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>0.24975454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>0.39071818181818174</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>0.39579999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>0.29230909090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>0.18066363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>0.10633636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>7.8863636363636372E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>0.12603636363636364</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>0.16291818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>0.24087272727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>0.3347</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>0.33928181818181824</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>0.41123636363636362</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>0.29957272727272732</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>0.1776363636363637</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>0.13599090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>0.17469090909090906</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>0.23707272727272732</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>0.27299090909090917</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>0.37484545454545465</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>0.38699090909090916</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>0.40886363636363643</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>0.32970000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>7.8190909090909144E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>3.6618181818181834E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>7.3645454545454542E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>0.13202727272727274</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>0.15209090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>0.21484545454545459</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>0.30334545454545458</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>0.42453636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>0.33709090909090911</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>0.18630000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>0.12302727272727272</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>0.12790000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>0.18520000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>0.21949999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>0.33535454545454552</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>0.43575454545454551</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>0.45786363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>0.34520000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>9.1145454545454516E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>3.0590909090909071E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>4.1999999999999989E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>9.5854545454545428E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>0.14318181818181819</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>0.23761818181818184</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>0.29847272727272733</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>0.42670909090909087</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>0.34990000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>0.20464545454545452</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>0.1399</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>0.13036363636363638</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>0.17636363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>0.21103636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>0.33222727272727282</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>0.46040909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>0.4404636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>0.38610909090909101</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>0.12793636363636374</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>5.2054545454545513E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>5.6918181818181868E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>9.8418181818181918E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>0.1325909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>0.21485454545454558</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>0.30731818181818193</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>0.41361818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>0.30734545454545453</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>0.20621818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>0.14021818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>0.12637272727272728</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>0.14955454545454544</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>0.16297272727272724</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>0.26301818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>0.38378181818181822</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>0.41809999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>0.39097272727272719</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>0.15470909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>7.4563636363636304E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>6.152727272727266E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>8.9199999999999904E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>0.10114545454545451</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>0.17873636363636358</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>0.29899090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>0.2991454545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>0.34350909090909093</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>0.24191818181818184</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>0.13549090909090911</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>9.6336363636363623E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>0.12169090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>0.1586636363636364</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>0.19128181818181825</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>0.32939090909090923</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>0.37862727272727281</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>0.36968181818181822</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>0.31553636363636373</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>0.12437272727272736</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>6.1509090909090978E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>6.3472727272727347E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>0.1077272727272728</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>0.14326363636363645</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>0.25676363636363642</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>0.39631818181818185</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>0.43545454545454554</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>0.3527818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>0.22416363636363637</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>0.14256363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>0.14868181818181817</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>0.18117272727272724</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>0.21201818181818186</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>0.32319090909090914</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>0.4971181818181819</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>0.47560909090909098</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>0.34496363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>0.15590909090909094</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>8.1527272727272754E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>8.307272727272727E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>0.10916363636363639</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>0.13571818181818188</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>0.27644545454545461</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>0.42028181818181826</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>0.47998181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>0.33624545454545457</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>0.21028181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>0.12647272727272726</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>0.11970000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>0.16932727272727274</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>0.1976636363636364</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>0.29802727272727264</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>0.46462727272727272</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>0.42290909090909101</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>0.32991818181818189</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>0.15370000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>6.4318181818181844E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>6.0427272727272857E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>9.6009090909091016E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>0.11484545454545464</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>0.16260000000000011</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>0.24067272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>0.25297272727272735</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>0.26191818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>0.19232727272727279</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>0.1107181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>9.1554545454545444E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>0.11461818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>0.11220909090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>0.12843636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>0.26335454545454556</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>0.34700909090909104</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>0.36076363636363645</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>0.31115454545454563</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>0.14487272727272735</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>0.11655454545454554</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>0.12872727272727277</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>0.13791818181818191</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>0.12338181818181827</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>0.17615454545454548</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>0.30505454545454547</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>0.43049090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>0.31657272727272717</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>0.25271818181818173</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>0.18862727272727264</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>0.14709090909090902</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>0.15479090909090898</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>0.16334545454545446</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>0.19941818181818174</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>0.30249090909090903</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>0.44935454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>0.32559090909090904</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>0.10671818181818184</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>0.11339090909090911</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>6.6445454545454599E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>6.5809090909090942E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>9.6327272727272775E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>0.10175454545454551</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>0.10268181818181819</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>0.15537272727272736</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>0.18772727272727285</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>0.13960909090909099</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>0.16741818181818188</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>0.14739090909090913</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>0.10198181818181823</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>0.10203636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>0.12596363636363642</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>0.12539090909090916</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>0.113009090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>0.19370000000000009</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>0.22087272727272733</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>0.21030909090909097</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>0.14136363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>0.11321818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>9.9563636363636382E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>9.9900000000000017E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>0.12137272727272728</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>0.11870909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>9.2618181818181794E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>0.14205454545454543</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>0.16812727272727274</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>0.14066363636363638</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>9.6163636363636368E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>0.10646363636363637</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>0.10253636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>8.3618181818181828E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="313">
-                        <c:v>8.3945454545454559E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="314">
-                        <c:v>0.10993636363636368</c:v>
-                      </c:pt>
-                      <c:pt idx="315">
-                        <c:v>0.10409090909090914</c:v>
-                      </c:pt>
-                      <c:pt idx="316">
-                        <c:v>0.14240000000000008</c:v>
-                      </c:pt>
-                      <c:pt idx="317">
-                        <c:v>0.18000909090909098</c:v>
-                      </c:pt>
-                      <c:pt idx="318">
-                        <c:v>0.17239090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="319">
-                        <c:v>0.14490000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="320">
-                        <c:v>0.13499090909090913</c:v>
-                      </c:pt>
-                      <c:pt idx="321">
-                        <c:v>7.2409090909090937E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="322">
-                        <c:v>4.7227272727272764E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="323">
-                        <c:v>5.8363636363636416E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="324">
-                        <c:v>7.4363636363636396E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="325">
-                        <c:v>3.7527272727272763E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="326">
-                        <c:v>1.7827272727272744E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="327">
-                        <c:v>5.6781818181818204E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="328">
-                        <c:v>4.1727272727272752E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="329">
-                        <c:v>0.14630909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="330">
-                        <c:v>0.25391818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="331">
-                        <c:v>0.21742727272727266</c:v>
-                      </c:pt>
-                      <c:pt idx="332">
-                        <c:v>0.20023636363636357</c:v>
-                      </c:pt>
-                      <c:pt idx="333">
-                        <c:v>0.17889999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="334">
-                        <c:v>0.179090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="335">
-                        <c:v>0.18113636363636357</c:v>
-                      </c:pt>
-                      <c:pt idx="336">
-                        <c:v>0.17721818181818172</c:v>
-                      </c:pt>
-                      <c:pt idx="337">
-                        <c:v>0.25203636363636356</c:v>
-                      </c:pt>
-                      <c:pt idx="338">
-                        <c:v>0.3194272727272725</c:v>
-                      </c:pt>
-                      <c:pt idx="339">
-                        <c:v>0.35330909090909085</c:v>
-                      </c:pt>
-                      <c:pt idx="340">
-                        <c:v>0.22779999999999989</c:v>
-                      </c:pt>
-                      <c:pt idx="341">
-                        <c:v>7.6199999999999948E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="342">
-                        <c:v>4.6818181818181752E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="343">
-                        <c:v>4.3899999999999946E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="344">
-                        <c:v>9.2745454545454464E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="345">
-                        <c:v>0.10411818181818172</c:v>
-                      </c:pt>
-                      <c:pt idx="346">
-                        <c:v>8.9754545454545434E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="347">
-                        <c:v>0.18688181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="348">
-                        <c:v>0.22462727272727268</c:v>
-                      </c:pt>
-                      <c:pt idx="349">
-                        <c:v>0.24565454545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="350">
-                        <c:v>0.21376363636363635</c:v>
-                      </c:pt>
-                      <c:pt idx="351">
-                        <c:v>0.15522727272727269</c:v>
-                      </c:pt>
-                      <c:pt idx="352">
-                        <c:v>0.13715454545454542</c:v>
-                      </c:pt>
-                      <c:pt idx="353">
-                        <c:v>0.13579999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="354">
-                        <c:v>0.15206363636363632</c:v>
-                      </c:pt>
-                      <c:pt idx="355">
-                        <c:v>0.13699999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="356">
-                        <c:v>0.14329999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="357">
-                        <c:v>0.24108181818181817</c:v>
-                      </c:pt>
-                      <c:pt idx="358">
-                        <c:v>0.26077272727272732</c:v>
-                      </c:pt>
-                      <c:pt idx="359">
-                        <c:v>0.28029999999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="360">
-                        <c:v>0.16509090909090907</c:v>
-                      </c:pt>
-                      <c:pt idx="361">
-                        <c:v>8.6863636363636365E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="362">
-                        <c:v>4.8500000000000015E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="363">
-                        <c:v>6.0672727272727295E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="364">
-                        <c:v>0.10045454545454549</c:v>
-                      </c:pt>
-                      <c:pt idx="365">
-                        <c:v>9.9763636363636443E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="366">
-                        <c:v>0.11129090909090915</c:v>
-                      </c:pt>
-                      <c:pt idx="367">
-                        <c:v>0.16650909090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="368">
-                        <c:v>0.13919999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="369">
-                        <c:v>0.2117818181818181</c:v>
-                      </c:pt>
-                      <c:pt idx="370">
-                        <c:v>0.17845454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="371">
-                        <c:v>0.14908181818181815</c:v>
-                      </c:pt>
-                      <c:pt idx="372">
-                        <c:v>0.14289999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="373">
-                        <c:v>0.14129999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="374">
-                        <c:v>0.1505181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="375">
-                        <c:v>0.12029090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="376">
-                        <c:v>0.14435454545454543</c:v>
-                      </c:pt>
-                      <c:pt idx="377">
-                        <c:v>0.22380000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="378">
-                        <c:v>0.30593636363636356</c:v>
-                      </c:pt>
-                      <c:pt idx="379">
-                        <c:v>0.33914545454545453</c:v>
-                      </c:pt>
-                      <c:pt idx="380">
-                        <c:v>0.16978181818181817</c:v>
-                      </c:pt>
-                      <c:pt idx="381">
-                        <c:v>8.9290909090909074E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="382">
-                        <c:v>6.2845454545454538E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="383">
-                        <c:v>8.1281818181818177E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="384">
-                        <c:v>0.10830000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="385">
-                        <c:v>0.10824545454545453</c:v>
-                      </c:pt>
-                      <c:pt idx="386">
-                        <c:v>0.14490909090909085</c:v>
-                      </c:pt>
-                      <c:pt idx="387">
-                        <c:v>0.27101818181818177</c:v>
-                      </c:pt>
-                      <c:pt idx="388">
-                        <c:v>0.27509999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="389">
-                        <c:v>0.23113636363636367</c:v>
-                      </c:pt>
-                      <c:pt idx="390">
-                        <c:v>0.19097272727272732</c:v>
-                      </c:pt>
-                      <c:pt idx="391">
-                        <c:v>0.16452727272727277</c:v>
-                      </c:pt>
-                      <c:pt idx="392">
-                        <c:v>0.11046363636363637</c:v>
-                      </c:pt>
-                      <c:pt idx="393">
-                        <c:v>8.2727272727272746E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="394">
-                        <c:v>0.18927272727272718</c:v>
-                      </c:pt>
-                      <c:pt idx="395">
-                        <c:v>0.36058181818181817</c:v>
-                      </c:pt>
-                      <c:pt idx="396">
-                        <c:v>0.48694545454545463</c:v>
-                      </c:pt>
-                      <c:pt idx="397">
-                        <c:v>0.41504545454545455</c:v>
-                      </c:pt>
-                      <c:pt idx="398">
-                        <c:v>0.22580909090909093</c:v>
-                      </c:pt>
-                      <c:pt idx="399">
-                        <c:v>0.3732363636363637</c:v>
-                      </c:pt>
-                      <c:pt idx="400">
-                        <c:v>0.4988272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="401">
-                        <c:v>0.54000909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="402">
-                        <c:v>0.54974545454545454</c:v>
-                      </c:pt>
-                      <c:pt idx="403">
-                        <c:v>0.56459999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="404">
-                        <c:v>0.55219090909090918</c:v>
-                      </c:pt>
-                      <c:pt idx="405">
-                        <c:v>0.45459090909090932</c:v>
-                      </c:pt>
-                      <c:pt idx="406">
-                        <c:v>0.99192727272727266</c:v>
-                      </c:pt>
-                      <c:pt idx="407">
-                        <c:v>1.4572545454545456</c:v>
-                      </c:pt>
-                      <c:pt idx="408">
-                        <c:v>1.6509090909090907</c:v>
-                      </c:pt>
-                      <c:pt idx="409">
-                        <c:v>1.6422272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="410">
-                        <c:v>1.3672</c:v>
-                      </c:pt>
-                      <c:pt idx="411">
-                        <c:v>1.1955363636363634</c:v>
-                      </c:pt>
-                      <c:pt idx="412">
-                        <c:v>1.126290909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="413">
-                        <c:v>1.5993999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="414">
-                        <c:v>1.8286</c:v>
-                      </c:pt>
-                      <c:pt idx="415">
-                        <c:v>1.888818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="416">
-                        <c:v>1.827681818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="417">
-                        <c:v>1.0470999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="418">
-                        <c:v>0.48283636363636373</c:v>
-                      </c:pt>
-                      <c:pt idx="419">
-                        <c:v>1.1353636363636368</c:v>
-                      </c:pt>
-                      <c:pt idx="420">
-                        <c:v>1.6028636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="421">
-                        <c:v>1.608418181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="422">
-                        <c:v>1.4990727272727276</c:v>
-                      </c:pt>
-                      <c:pt idx="423">
-                        <c:v>1.4079727272727274</c:v>
-                      </c:pt>
-                      <c:pt idx="424">
-                        <c:v>0.91207272727272748</c:v>
-                      </c:pt>
-                      <c:pt idx="425">
-                        <c:v>1.7229818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="426">
-                        <c:v>2.3566636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="427">
-                        <c:v>2.3851818181818185</c:v>
-                      </c:pt>
-                      <c:pt idx="428">
-                        <c:v>2.3941818181818189</c:v>
-                      </c:pt>
-                      <c:pt idx="429">
-                        <c:v>2.2956545454545458</c:v>
-                      </c:pt>
-                      <c:pt idx="430">
-                        <c:v>1.4277272727272725</c:v>
-                      </c:pt>
-                      <c:pt idx="431">
-                        <c:v>1.3188363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="432">
-                        <c:v>2.2244909090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="433">
-                        <c:v>2.3384727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="434">
-                        <c:v>2.349890909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="435">
-                        <c:v>2.3129909090909089</c:v>
-                      </c:pt>
-                      <c:pt idx="436">
-                        <c:v>1.2456636363636362</c:v>
-                      </c:pt>
-                      <c:pt idx="437">
-                        <c:v>0.55657272727272733</c:v>
-                      </c:pt>
-                      <c:pt idx="438">
-                        <c:v>2.3909363636363632</c:v>
-                      </c:pt>
-                      <c:pt idx="439">
-                        <c:v>2.7028545454545454</c:v>
-                      </c:pt>
-                      <c:pt idx="440">
-                        <c:v>2.7134181818181817</c:v>
-                      </c:pt>
-                      <c:pt idx="441">
-                        <c:v>2.7167909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="442">
-                        <c:v>2.3414181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="443">
-                        <c:v>1.4053090909090911</c:v>
-                      </c:pt>
-                      <c:pt idx="444">
-                        <c:v>2.2049727272727271</c:v>
-                      </c:pt>
-                      <c:pt idx="445">
-                        <c:v>2.9567454545454548</c:v>
-                      </c:pt>
-                      <c:pt idx="446">
-                        <c:v>3.0217181818181817</c:v>
-                      </c:pt>
-                      <c:pt idx="447">
-                        <c:v>3.0304000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="448">
-                        <c:v>3.0254545454545463</c:v>
-                      </c:pt>
-                      <c:pt idx="449">
-                        <c:v>1.1484818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="450">
-                        <c:v>0.98646363636363621</c:v>
-                      </c:pt>
-                      <c:pt idx="451">
-                        <c:v>2.2734999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="452">
-                        <c:v>2.3417727272727271</c:v>
-                      </c:pt>
-                      <c:pt idx="453">
-                        <c:v>2.3619909090909093</c:v>
-                      </c:pt>
-                      <c:pt idx="454">
-                        <c:v>2.3657363636363642</c:v>
-                      </c:pt>
-                      <c:pt idx="455">
-                        <c:v>1.4418727272727276</c:v>
-                      </c:pt>
-                      <c:pt idx="456">
-                        <c:v>0.90399999999999991</c:v>
-                      </c:pt>
-                      <c:pt idx="457">
-                        <c:v>1.6145818181818179</c:v>
-                      </c:pt>
-                      <c:pt idx="458">
-                        <c:v>2.0006181818181812</c:v>
-                      </c:pt>
-                      <c:pt idx="459">
-                        <c:v>2.0251999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="460">
-                        <c:v>2.0285636363636361</c:v>
-                      </c:pt>
-                      <c:pt idx="461">
-                        <c:v>1.871454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="462">
-                        <c:v>0.63017272727272722</c:v>
-                      </c:pt>
-                      <c:pt idx="463">
-                        <c:v>1.7050545454545456</c:v>
-                      </c:pt>
-                      <c:pt idx="464">
-                        <c:v>1.9808272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="465">
-                        <c:v>1.9964727272727272</c:v>
-                      </c:pt>
-                      <c:pt idx="466">
-                        <c:v>2.0027727272727271</c:v>
-                      </c:pt>
-                      <c:pt idx="467">
-                        <c:v>1.7806999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="468">
-                        <c:v>1.0098</c:v>
-                      </c:pt>
-                      <c:pt idx="469">
-                        <c:v>1.386181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="470">
-                        <c:v>2.2989181818181819</c:v>
-                      </c:pt>
-                      <c:pt idx="471">
-                        <c:v>2.4068545454545451</c:v>
-                      </c:pt>
-                      <c:pt idx="472">
-                        <c:v>2.4134999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="473">
-                        <c:v>2.3554909090909089</c:v>
-                      </c:pt>
-                      <c:pt idx="474">
-                        <c:v>1.208309090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="475">
-                        <c:v>0.97062727272727267</c:v>
-                      </c:pt>
-                      <c:pt idx="476">
-                        <c:v>2.1636636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="477">
-                        <c:v>2.2680909090909096</c:v>
-                      </c:pt>
-                      <c:pt idx="478">
-                        <c:v>2.2780818181818181</c:v>
-                      </c:pt>
-                      <c:pt idx="479">
-                        <c:v>2.2740636363636368</c:v>
-                      </c:pt>
-                      <c:pt idx="480">
-                        <c:v>1.5101090909090913</c:v>
-                      </c:pt>
-                      <c:pt idx="481">
-                        <c:v>0.5945454545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="482">
-                        <c:v>1.5858727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="483">
-                        <c:v>1.875881818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="484">
-                        <c:v>1.9059181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="485">
-                        <c:v>1.9071909090909094</c:v>
-                      </c:pt>
-                      <c:pt idx="486">
-                        <c:v>1.8463818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="487">
-                        <c:v>0.63609090909090893</c:v>
-                      </c:pt>
-                      <c:pt idx="488">
-                        <c:v>0.67318181818181799</c:v>
-                      </c:pt>
-                      <c:pt idx="489">
-                        <c:v>1.5321363636363634</c:v>
-                      </c:pt>
-                      <c:pt idx="490">
-                        <c:v>1.5756454545454543</c:v>
-                      </c:pt>
-                      <c:pt idx="491">
-                        <c:v>1.5825545454545453</c:v>
-                      </c:pt>
-                      <c:pt idx="492">
-                        <c:v>1.5652363636363631</c:v>
-                      </c:pt>
-                      <c:pt idx="493">
-                        <c:v>0.4647090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="494">
-                        <c:v>0.21695454545454548</c:v>
-                      </c:pt>
-                      <c:pt idx="495">
-                        <c:v>1.1065454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="496">
-                        <c:v>1.3076454545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="497">
-                        <c:v>1.3356363636363635</c:v>
-                      </c:pt>
-                      <c:pt idx="498">
-                        <c:v>1.333281818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="499">
-                        <c:v>1.1802272727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="500">
-                        <c:v>0.31305454545454536</c:v>
-                      </c:pt>
-                      <c:pt idx="501">
-                        <c:v>2.1080636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="502">
-                        <c:v>2.5113363636363633</c:v>
-                      </c:pt>
-                      <c:pt idx="503">
-                        <c:v>2.5198</c:v>
-                      </c:pt>
-                      <c:pt idx="504">
-                        <c:v>2.5220545454545449</c:v>
-                      </c:pt>
-                      <c:pt idx="505">
-                        <c:v>2.4765727272727269</c:v>
-                      </c:pt>
-                      <c:pt idx="506">
-                        <c:v>1.5718090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="507">
-                        <c:v>2.0446454545454547</c:v>
-                      </c:pt>
-                      <c:pt idx="508">
-                        <c:v>3.0725818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="509">
-                        <c:v>3.1483272727272724</c:v>
-                      </c:pt>
-                      <c:pt idx="510">
-                        <c:v>3.1539272727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="511">
-                        <c:v>3.1435363636363634</c:v>
-                      </c:pt>
-                      <c:pt idx="512">
-                        <c:v>1.301818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="513">
-                        <c:v>0.92851818181818191</c:v>
-                      </c:pt>
-                      <c:pt idx="514">
-                        <c:v>2.7511272727272731</c:v>
-                      </c:pt>
-                      <c:pt idx="515">
-                        <c:v>2.8710181818181821</c:v>
-                      </c:pt>
-                      <c:pt idx="516">
-                        <c:v>2.8837545454545461</c:v>
-                      </c:pt>
-                      <c:pt idx="517">
-                        <c:v>2.8826090909090918</c:v>
-                      </c:pt>
-                      <c:pt idx="518">
-                        <c:v>2.2309727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="519">
-                        <c:v>1.1905272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="520">
-                        <c:v>1.9297909090909096</c:v>
-                      </c:pt>
-                      <c:pt idx="521">
-                        <c:v>2.2517363636363639</c:v>
-                      </c:pt>
-                      <c:pt idx="522">
-                        <c:v>2.3146727272727272</c:v>
-                      </c:pt>
-                      <c:pt idx="523">
-                        <c:v>2.3255636363636363</c:v>
-                      </c:pt>
-                      <c:pt idx="524">
-                        <c:v>2.2806454545454549</c:v>
-                      </c:pt>
-                      <c:pt idx="525">
-                        <c:v>0.44690909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="526">
-                        <c:v>1.9997090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="527">
-                        <c:v>2.5270545454545457</c:v>
-                      </c:pt>
-                      <c:pt idx="528">
-                        <c:v>2.5417000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="529">
-                        <c:v>2.5288636363636363</c:v>
-                      </c:pt>
-                      <c:pt idx="530">
-                        <c:v>2.5206363636363638</c:v>
-                      </c:pt>
-                      <c:pt idx="531">
-                        <c:v>1.7053727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="532">
-                        <c:v>1.4205909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="533">
-                        <c:v>2.3723818181818177</c:v>
-                      </c:pt>
-                      <c:pt idx="534">
-                        <c:v>2.5128909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="535">
-                        <c:v>2.5379727272727268</c:v>
-                      </c:pt>
-                      <c:pt idx="536">
-                        <c:v>2.535209090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="537">
-                        <c:v>0.85649090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="538">
-                        <c:v>0.3287363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="539">
-                        <c:v>2.3613818181818185</c:v>
-                      </c:pt>
-                      <c:pt idx="540">
-                        <c:v>2.6131545454545453</c:v>
-                      </c:pt>
-                      <c:pt idx="541">
-                        <c:v>2.6225363636363634</c:v>
-                      </c:pt>
-                      <c:pt idx="542">
-                        <c:v>2.6284272727272726</c:v>
-                      </c:pt>
-                      <c:pt idx="543">
-                        <c:v>2.5925727272727275</c:v>
-                      </c:pt>
-                      <c:pt idx="544">
-                        <c:v>1.5817181818181822</c:v>
-                      </c:pt>
-                      <c:pt idx="545">
-                        <c:v>2.626554545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="546">
-                        <c:v>3.4026636363636369</c:v>
-                      </c:pt>
-                      <c:pt idx="547">
-                        <c:v>3.4671000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="548">
-                        <c:v>3.472563636363637</c:v>
-                      </c:pt>
-                      <c:pt idx="549">
-                        <c:v>3.4538727272727283</c:v>
-                      </c:pt>
-                      <c:pt idx="550">
-                        <c:v>1.392718181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="551">
-                        <c:v>1.1901818181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="552">
-                        <c:v>2.9071363636363632</c:v>
-                      </c:pt>
-                      <c:pt idx="553">
-                        <c:v>2.9690545454545454</c:v>
-                      </c:pt>
-                      <c:pt idx="554">
-                        <c:v>2.9701999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="555">
-                        <c:v>2.970327272727272</c:v>
-                      </c:pt>
-                      <c:pt idx="556">
-                        <c:v>1.7866181818181817</c:v>
-                      </c:pt>
-                      <c:pt idx="557">
-                        <c:v>1.0028545454545457</c:v>
-                      </c:pt>
-                      <c:pt idx="558">
-                        <c:v>2.0548272727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="559">
-                        <c:v>2.3826727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="560">
-                        <c:v>2.4181181818181816</c:v>
-                      </c:pt>
-                      <c:pt idx="561">
-                        <c:v>2.422009090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="562">
-                        <c:v>2.3624727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="563">
-                        <c:v>0.63251818181818165</c:v>
-                      </c:pt>
-                      <c:pt idx="564">
-                        <c:v>0.62849090909090899</c:v>
-                      </c:pt>
-                      <c:pt idx="565">
-                        <c:v>1.7497454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="566">
-                        <c:v>1.7935636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="567">
-                        <c:v>1.7960818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="568">
-                        <c:v>1.7975000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="569">
-                        <c:v>0.68931818181818194</c:v>
-                      </c:pt>
-                      <c:pt idx="570">
-                        <c:v>0.40018181818181825</c:v>
-                      </c:pt>
-                      <c:pt idx="571">
-                        <c:v>1.049718181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="572">
-                        <c:v>1.2674545454545454</c:v>
-                      </c:pt>
-                      <c:pt idx="573">
-                        <c:v>1.3080727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="574">
-                        <c:v>1.3134454545454544</c:v>
-                      </c:pt>
-                      <c:pt idx="575">
-                        <c:v>1.2450363636363635</c:v>
-                      </c:pt>
-                      <c:pt idx="576">
-                        <c:v>0.1421090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="577">
-                        <c:v>2.0145636363636368</c:v>
-                      </c:pt>
-                      <c:pt idx="578">
-                        <c:v>2.4702545454545457</c:v>
-                      </c:pt>
-                      <c:pt idx="579">
-                        <c:v>2.4925000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="580">
-                        <c:v>2.5051454545454543</c:v>
-                      </c:pt>
-                      <c:pt idx="581">
-                        <c:v>2.4680090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="582">
-                        <c:v>1.7860818181818183</c:v>
-                      </c:pt>
-                      <c:pt idx="583">
-                        <c:v>1.5727090909090911</c:v>
-                      </c:pt>
-                      <c:pt idx="584">
-                        <c:v>2.6838454545454549</c:v>
-                      </c:pt>
-                      <c:pt idx="585">
-                        <c:v>2.9149272727272728</c:v>
-                      </c:pt>
-                      <c:pt idx="586">
-                        <c:v>2.9325727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="587">
-                        <c:v>2.9103090909090912</c:v>
-                      </c:pt>
-                      <c:pt idx="588">
-                        <c:v>0.99300909090909106</c:v>
-                      </c:pt>
-                      <c:pt idx="589">
-                        <c:v>0.53178181818181836</c:v>
-                      </c:pt>
-                      <c:pt idx="590">
-                        <c:v>2.5874636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="591">
-                        <c:v>3.115072727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="592">
-                        <c:v>3.1296000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="593">
-                        <c:v>3.1363909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="594">
-                        <c:v>3.1280636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="595">
-                        <c:v>1.9762363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="596">
-                        <c:v>1.7446545454545452</c:v>
-                      </c:pt>
-                      <c:pt idx="597">
-                        <c:v>2.9911272727272729</c:v>
-                      </c:pt>
-                      <c:pt idx="598">
-                        <c:v>3.215190909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="599">
-                        <c:v>3.238963636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="600">
-                        <c:v>3.2327454545454546</c:v>
-                      </c:pt>
-                      <c:pt idx="601">
-                        <c:v>1.1356454545454548</c:v>
-                      </c:pt>
-                      <c:pt idx="602">
-                        <c:v>0.5904636363636363</c:v>
-                      </c:pt>
-                      <c:pt idx="603">
-                        <c:v>0.97304545454545455</c:v>
-                      </c:pt>
-                      <c:pt idx="604">
-                        <c:v>2.1110545454545453</c:v>
-                      </c:pt>
-                      <c:pt idx="605">
-                        <c:v>2.136036363636364</c:v>
-                      </c:pt>
-                      <c:pt idx="606">
-                        <c:v>2.1447727272727275</c:v>
-                      </c:pt>
-                      <c:pt idx="607">
-                        <c:v>2.1418909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="608">
-                        <c:v>0.88000909090909074</c:v>
-                      </c:pt>
-                      <c:pt idx="609">
-                        <c:v>0.68644545454545425</c:v>
-                      </c:pt>
-                      <c:pt idx="610">
-                        <c:v>1.7082636363636361</c:v>
-                      </c:pt>
-                      <c:pt idx="611">
-                        <c:v>1.9756454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="612">
-                        <c:v>2.0106090909090906</c:v>
-                      </c:pt>
-                      <c:pt idx="613">
-                        <c:v>2.0107090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="614">
-                        <c:v>1.6091727272727274</c:v>
-                      </c:pt>
-                      <c:pt idx="615">
-                        <c:v>0.46855454545454561</c:v>
-                      </c:pt>
-                      <c:pt idx="616">
-                        <c:v>1.3774636363636363</c:v>
-                      </c:pt>
-                      <c:pt idx="617">
-                        <c:v>2.2504000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="618">
-                        <c:v>2.2670818181818184</c:v>
-                      </c:pt>
-                      <c:pt idx="619">
-                        <c:v>2.2701545454545458</c:v>
-                      </c:pt>
-                      <c:pt idx="620">
-                        <c:v>2.2373181818181824</c:v>
-                      </c:pt>
-                      <c:pt idx="621">
-                        <c:v>1.1912090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="622">
-                        <c:v>0.92364545454545455</c:v>
-                      </c:pt>
-                      <c:pt idx="623">
-                        <c:v>2.2195545454545456</c:v>
-                      </c:pt>
-                      <c:pt idx="624">
-                        <c:v>2.6078454545454548</c:v>
-                      </c:pt>
-                      <c:pt idx="625">
-                        <c:v>2.6494181818181812</c:v>
-                      </c:pt>
-                      <c:pt idx="626">
-                        <c:v>2.6569090909090907</c:v>
-                      </c:pt>
-                      <c:pt idx="627">
-                        <c:v>1.7232363636363635</c:v>
-                      </c:pt>
-                      <c:pt idx="628">
-                        <c:v>0.85219090909090933</c:v>
-                      </c:pt>
-                      <c:pt idx="629">
-                        <c:v>0.98840000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="630">
-                        <c:v>2.2326181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="631">
-                        <c:v>2.3043727272727272</c:v>
-                      </c:pt>
-                      <c:pt idx="632">
-                        <c:v>2.3217999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="633">
-                        <c:v>2.3224727272727268</c:v>
-                      </c:pt>
-                      <c:pt idx="634">
-                        <c:v>0.99331818181818188</c:v>
-                      </c:pt>
-                      <c:pt idx="635">
-                        <c:v>0.61980909090909109</c:v>
-                      </c:pt>
-                      <c:pt idx="636">
-                        <c:v>1.9030454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="637">
-                        <c:v>2.1832545454545458</c:v>
-                      </c:pt>
-                      <c:pt idx="638">
-                        <c:v>2.3164090909090911</c:v>
-                      </c:pt>
-                      <c:pt idx="639">
-                        <c:v>2.3326545454545458</c:v>
-                      </c:pt>
-                      <c:pt idx="640">
-                        <c:v>2.1762636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="641">
-                        <c:v>0.92669090909090879</c:v>
-                      </c:pt>
-                      <c:pt idx="642">
-                        <c:v>0.89984545454545428</c:v>
-                      </c:pt>
-                      <c:pt idx="643">
-                        <c:v>2.7280636363636366</c:v>
-                      </c:pt>
-                      <c:pt idx="644">
-                        <c:v>2.8881181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="645">
-                        <c:v>2.8971727272727277</c:v>
-                      </c:pt>
-                      <c:pt idx="646">
-                        <c:v>2.8766727272727279</c:v>
-                      </c:pt>
-                      <c:pt idx="647">
-                        <c:v>1.5494090909090914</c:v>
-                      </c:pt>
-                      <c:pt idx="648">
-                        <c:v>1.2572272727272731</c:v>
-                      </c:pt>
-                      <c:pt idx="649">
-                        <c:v>1.186718181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="650">
-                        <c:v>3.1215272727272732</c:v>
-                      </c:pt>
-                      <c:pt idx="651">
-                        <c:v>3.2012454545454556</c:v>
-                      </c:pt>
-                      <c:pt idx="652">
-                        <c:v>3.2249636363636371</c:v>
-                      </c:pt>
-                      <c:pt idx="653">
-                        <c:v>3.1879818181818185</c:v>
-                      </c:pt>
-                      <c:pt idx="654">
-                        <c:v>1.3400999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="655">
-                        <c:v>1.1778000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="656">
-                        <c:v>1.4410454545454543</c:v>
-                      </c:pt>
-                      <c:pt idx="657">
-                        <c:v>2.6642090909090914</c:v>
-                      </c:pt>
-                      <c:pt idx="658">
-                        <c:v>2.8145636363636362</c:v>
-                      </c:pt>
-                      <c:pt idx="659">
-                        <c:v>2.846318181818182</c:v>
-                      </c:pt>
-                      <c:pt idx="660">
-                        <c:v>2.7930272727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="661">
-                        <c:v>0.83232727272727269</c:v>
-                      </c:pt>
-                      <c:pt idx="662">
-                        <c:v>0.75530909090909093</c:v>
-                      </c:pt>
-                      <c:pt idx="663">
-                        <c:v>0.79720000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="664">
-                        <c:v>2.6620272727272734</c:v>
-                      </c:pt>
-                      <c:pt idx="665">
-                        <c:v>2.7089090909090916</c:v>
-                      </c:pt>
-                      <c:pt idx="666">
-                        <c:v>2.7123636363636368</c:v>
-                      </c:pt>
-                      <c:pt idx="667">
-                        <c:v>2.4403909090909095</c:v>
-                      </c:pt>
-                      <c:pt idx="668">
-                        <c:v>1.2156727272727275</c:v>
-                      </c:pt>
-                      <c:pt idx="669">
-                        <c:v>1.0661090909090913</c:v>
-                      </c:pt>
-                      <c:pt idx="670">
-                        <c:v>1.8860545454545454</c:v>
-                      </c:pt>
-                      <c:pt idx="671">
-                        <c:v>2.8805090909090914</c:v>
-                      </c:pt>
-                      <c:pt idx="672">
-                        <c:v>2.9531272727272726</c:v>
-                      </c:pt>
-                      <c:pt idx="673">
-                        <c:v>2.9574909090909087</c:v>
-                      </c:pt>
-                      <c:pt idx="674">
-                        <c:v>2.8926545454545445</c:v>
-                      </c:pt>
-                      <c:pt idx="675">
-                        <c:v>1.0174454545454548</c:v>
-                      </c:pt>
-                      <c:pt idx="676">
-                        <c:v>0.98870909090909109</c:v>
-                      </c:pt>
-                      <c:pt idx="677">
-                        <c:v>2.6611909090909092</c:v>
-                      </c:pt>
-                      <c:pt idx="678">
-                        <c:v>3.1014454545454551</c:v>
-                      </c:pt>
-                      <c:pt idx="679">
-                        <c:v>3.1110000000000011</c:v>
-                      </c:pt>
-                      <c:pt idx="680">
-                        <c:v>3.1090000000000013</c:v>
-                      </c:pt>
-                      <c:pt idx="681">
-                        <c:v>2.2538090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="682">
-                        <c:v>1.2473727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="683">
-                        <c:v>1.255090909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="684">
-                        <c:v>2.7963272727272721</c:v>
-                      </c:pt>
-                      <c:pt idx="685">
-                        <c:v>2.8477090909090905</c:v>
-                      </c:pt>
-                      <c:pt idx="686">
-                        <c:v>2.8558090909090903</c:v>
-                      </c:pt>
-                      <c:pt idx="687">
-                        <c:v>2.8377818181818175</c:v>
-                      </c:pt>
-                      <c:pt idx="688">
-                        <c:v>1.1583999999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="689">
-                        <c:v>0.72096363636363592</c:v>
-                      </c:pt>
-                      <c:pt idx="690">
-                        <c:v>3.01540909090909</c:v>
-                      </c:pt>
-                      <c:pt idx="691">
-                        <c:v>3.6167454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="692">
-                        <c:v>3.6477909090909084</c:v>
-                      </c:pt>
-                      <c:pt idx="693">
-                        <c:v>3.6527090909090902</c:v>
-                      </c:pt>
-                      <c:pt idx="694">
-                        <c:v>3.5681727272727271</c:v>
-                      </c:pt>
-                      <c:pt idx="695">
-                        <c:v>2.0171181818181818</c:v>
-                      </c:pt>
-                      <c:pt idx="696">
-                        <c:v>1.9871454545454541</c:v>
-                      </c:pt>
-                      <c:pt idx="697">
-                        <c:v>3.7637909090909094</c:v>
-                      </c:pt>
-                      <c:pt idx="698">
-                        <c:v>3.9055181818181821</c:v>
-                      </c:pt>
-                      <c:pt idx="699">
-                        <c:v>3.9251454545454538</c:v>
-                      </c:pt>
-                      <c:pt idx="700">
-                        <c:v>3.9239545454545448</c:v>
-                      </c:pt>
-                      <c:pt idx="701">
-                        <c:v>1.6262000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="702">
-                        <c:v>1.0512909090909093</c:v>
-                      </c:pt>
-                      <c:pt idx="703">
-                        <c:v>2.4520363636363638</c:v>
-                      </c:pt>
-                      <c:pt idx="704">
-                        <c:v>2.7986909090909093</c:v>
-                      </c:pt>
-                      <c:pt idx="705">
-                        <c:v>2.9324909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="706">
-                        <c:v>2.9697545454545451</c:v>
-                      </c:pt>
-                      <c:pt idx="707">
-                        <c:v>2.9486181818181816</c:v>
-                      </c:pt>
-                      <c:pt idx="708">
-                        <c:v>1.1709272727272726</c:v>
-                      </c:pt>
-                      <c:pt idx="709">
-                        <c:v>1.1630727272727273</c:v>
-                      </c:pt>
-                      <c:pt idx="710">
-                        <c:v>2.2110454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="711">
-                        <c:v>2.3834090909090908</c:v>
-                      </c:pt>
-                      <c:pt idx="712">
-                        <c:v>2.4024545454545456</c:v>
-                      </c:pt>
-                      <c:pt idx="713">
-                        <c:v>2.3864636363636365</c:v>
-                      </c:pt>
-                      <c:pt idx="714">
-                        <c:v>0.96244545454545471</c:v>
-                      </c:pt>
-                      <c:pt idx="715">
-                        <c:v>0.65517272727272757</c:v>
-                      </c:pt>
-                      <c:pt idx="716">
-                        <c:v>1.6327454545454545</c:v>
-                      </c:pt>
-                      <c:pt idx="717">
-                        <c:v>1.8022363636363636</c:v>
-                      </c:pt>
-                      <c:pt idx="718">
-                        <c:v>1.9546727272727276</c:v>
-                      </c:pt>
-                      <c:pt idx="719">
-                        <c:v>2.0829454545454551</c:v>
-                      </c:pt>
-                      <c:pt idx="720">
-                        <c:v>1.9626727272727278</c:v>
-                      </c:pt>
-                      <c:pt idx="721">
-                        <c:v>0.91113636363636352</c:v>
-                      </c:pt>
-                      <c:pt idx="722">
-                        <c:v>0.96099999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="723">
-                        <c:v>1.6174545454545457</c:v>
-                      </c:pt>
-                      <c:pt idx="724">
-                        <c:v>1.7924</c:v>
-                      </c:pt>
-                      <c:pt idx="725">
-                        <c:v>1.855609090909091</c:v>
-                      </c:pt>
-                      <c:pt idx="726">
-                        <c:v>1.8583909090909094</c:v>
-                      </c:pt>
-                      <c:pt idx="727">
-                        <c:v>0.78387272727272728</c:v>
-                      </c:pt>
-                      <c:pt idx="728">
-                        <c:v>0.66675454545454538</c:v>
-                      </c:pt>
-                      <c:pt idx="729">
-                        <c:v>1.1615454545454542</c:v>
-                      </c:pt>
-                      <c:pt idx="730">
-                        <c:v>1.2579090909090906</c:v>
-                      </c:pt>
-                      <c:pt idx="731">
-                        <c:v>1.8235999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="732">
-                        <c:v>1.8856818181818178</c:v>
-                      </c:pt>
-                      <c:pt idx="733">
-                        <c:v>1.6728818181818179</c:v>
-                      </c:pt>
-                      <c:pt idx="734">
-                        <c:v>1.0176545454545454</c:v>
-                      </c:pt>
-                      <c:pt idx="735">
-                        <c:v>1.213472727272727</c:v>
-                      </c:pt>
-                      <c:pt idx="736">
-                        <c:v>1.8780818181818177</c:v>
-                      </c:pt>
-                      <c:pt idx="737">
-                        <c:v>2.0373727272727269</c:v>
-                      </c:pt>
-                      <c:pt idx="738">
-                        <c:v>2.0498363636363632</c:v>
-                      </c:pt>
-                      <c:pt idx="739">
-                        <c:v>1.9949181818181814</c:v>
-                      </c:pt>
-                      <c:pt idx="740">
-                        <c:v>1.4268181818181813</c:v>
-                      </c:pt>
-                      <c:pt idx="741">
-                        <c:v>1.2796181818181813</c:v>
-                      </c:pt>
-                      <c:pt idx="742">
-                        <c:v>1.3076909090909088</c:v>
-                      </c:pt>
-                      <c:pt idx="743">
-                        <c:v>1.4127090909090905</c:v>
-                      </c:pt>
-                      <c:pt idx="744">
-                        <c:v>1.7312181818181813</c:v>
-                      </c:pt>
-                      <c:pt idx="745">
-                        <c:v>1.8063999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="746">
-                        <c:v>1.4447636363636358</c:v>
-                      </c:pt>
-                      <c:pt idx="747">
-                        <c:v>0.74845454545454537</c:v>
-                      </c:pt>
-                      <c:pt idx="748">
-                        <c:v>0.90961818181818177</c:v>
-                      </c:pt>
-                      <c:pt idx="749">
-                        <c:v>1.0458199999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="750">
-                        <c:v>1.2300111111111109</c:v>
-                      </c:pt>
-                      <c:pt idx="751">
-                        <c:v>1.3950249999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="752">
-                        <c:v>1.6033285714285712</c:v>
-                      </c:pt>
-                      <c:pt idx="753">
-                        <c:v>0.9200666666666667</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>walking_running_niklas_20hz!$H$2:$H$755</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="754"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.13023888888888888</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.11641052631578944</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.11111052631578942</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>9.2142105263157831E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>7.4394736842105222E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>5.6642105263157848E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>5.2110526315789427E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>9.6963157894736834E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.1404</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.16173157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.20530526315789474</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.20366842105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.17541578947368419</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.13657368421052635</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.1138578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.11080526315789473</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.10045263157894736</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.11095263157894739</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0.1219263157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0.20983157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.23895789473684217</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.21806842105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.19958421052631584</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0.17831052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0.19020526315789477</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0.20635263157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.20722105263157897</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.23656842105263165</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.27882105263157902</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0.24731578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.21357894736842103</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.19274210526315794</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.1984157894736843</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0.21440000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.22076315789473691</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.28762631578947379</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0.29362631578947362</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0.28353684210526314</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0.25510000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.21366842105263159</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.19432631578947371</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.20265263157894736</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.2361789473684211</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.24298947368421056</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.27770526315789479</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>0.26372105263157897</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.24129999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.23567894736842104</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.21242631578947369</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0.20177368421052638</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0.20460000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0.22368947368421055</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0.23261052631578952</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>0.27942631578947374</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>0.28626315789473694</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>0.32378947368421057</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>0.28662631578947373</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>0.22211052631578951</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>0.20002631578947372</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>0.20651052631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>0.22965263157894744</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>0.23220000000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>0.27771052631578957</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>0.32152105263157899</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>0.35428421052631581</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>0.29840526315789478</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>0.20996315789473685</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>0.19335789473684212</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>0.20442631578947368</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>0.22764210526315784</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>0.25237368421052625</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>0.31611578947368418</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>0.31661578947368418</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>0.36952631578947376</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>0.27714210526315797</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>0.22997368421052639</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>0.22281052631578954</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>0.2392157894736843</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>0.25277368421052637</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>0.26341578947368433</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>0.31285263157894744</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>0.35084736842105274</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>0.34072631578947377</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>0.27590526315789488</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>0.24569473684210538</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>0.23718421052631591</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>0.2528368421052633</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>0.27355789473684217</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>0.2826789473684212</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>0.3181578947368422</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>0.34498421052631589</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>0.34053157894736857</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>0.22343157894736845</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>0.2053052631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>0.20153684210526318</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>0.20951052631578956</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>0.23212105263157906</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>0.24024210526315801</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>0.27577368421052645</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>0.30298947368421059</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>0.2657684210526316</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>0.21715789473684213</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>0.19520000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>0.18677894736842104</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>0.19675263157894735</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>0.21032105263157885</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>0.21219473684210524</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>0.25980526315789471</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>0.25477368421052632</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>0.20235263157894742</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>0.27408421052631576</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>0.25373157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>0.22981052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>0.22256315789473688</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>0.23827368421052633</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>0.24831578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>0.2715631578947369</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>0.28461578947368416</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>0.25764736842105274</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>0.2623368421052632</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>0.22400000000000012</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>0.21475789473684215</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>0.21336842105263168</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>0.22678947368421068</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>0.2260315789473685</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>0.23200526315789488</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>0.23324736842105279</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>0.25341052631578953</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>0.33397368421052637</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>0.21472105263157898</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>0.19675789473684213</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>0.1923842105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>0.2100736842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>0.21945263157894732</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>0.21661578947368423</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>0.26213684210526322</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>0.26726842105263166</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>0.27427894736842107</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>0.21655263157894736</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>0.19586315789473679</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>0.18716315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>0.19987368421052629</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>0.20524210526315786</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>0.21653157894736844</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>0.26896842105263152</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>0.26503157894736845</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>0.33355789473684211</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>0.22405789473684207</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>0.1976</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>0.18968947368421055</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>0.20011052631578949</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>0.21522105263157895</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>0.2148315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>0.27050526315789475</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>0.28893157894736837</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>0.27169473684210532</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>0.22348947368421057</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>0.20777368421052636</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>0.20142631578947376</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>0.21284210526315797</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>0.22235263157894744</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>0.22137894736842109</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>0.25671578947368423</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>0.2551842105263159</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>0.33716842105263167</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>0.21982631578947376</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>0.18851052631578949</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>0.1861894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>0.19994210526315798</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>0.21253684210526325</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>0.20508947368421063</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>0.2524473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>0.25122631578947374</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>0.23222105263157891</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>0.22653157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>0.20319999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>0.18892631578947358</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>0.19399473684210525</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>0.20487894736842097</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>0.2015210526315788</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>0.23925263157894727</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>0.25379999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>0.24771578947368417</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>0.21063684210526318</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>0.1943421052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>0.18558421052631577</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>0.1777947368421052</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>0.1862157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>0.19926842105263157</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>0.22126842105263156</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>0.23994736842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>0.23626842105263166</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>0.22576842105263162</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>0.20404210526315794</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>0.19307368421052634</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>0.18678421052631586</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>0.18671052631578958</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>0.18852105263157909</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>0.21060000000000015</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>0.24444210526315804</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>0.27761578947368426</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>0.3188631578947369</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>0.24163684210526321</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>0.21548947368421056</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>0.20813684210526318</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>0.22337894736842112</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>0.22122105263157907</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>0.2176000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>0.26488947368421062</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>0.30770526315789476</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>0.30058947368421057</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>0.26330526315789476</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>0.22644736842105265</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>0.2168315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>0.22797368421052627</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>0.23458947368421054</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>0.23958421052631582</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>0.29832631578947372</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>0.31226842105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>0.31332631578947373</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>0.25026842105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>0.21808947368421053</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>0.20674736842105265</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>0.21321052631578949</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>0.22878421052631581</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>0.23752105263157897</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>0.28438421052631585</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>0.32146842105263157</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>0.25536315789473685</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>0.227921052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>0.2025947368421053</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>0.19724210526315794</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>0.20587368421052635</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>0.21423684210526317</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>0.21649999999999991</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>0.24434736842105256</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>0.21681052631578951</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>0.18752105263157898</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>0.19522105263157896</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>0.17204210526315791</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>0.17027894736842111</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>0.18237894736842114</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>0.19430000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>0.17280526315789477</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>0.17415789473684209</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>0.19642631578947375</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>0.17625263157894744</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>0.18083157894736848</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>0.17665789473684218</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>0.19011052631578951</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>0.20228421052631584</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>0.20982105263157899</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>0.20664210526315796</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>0.19924210526315794</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>0.18065263157894745</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>0.21143157894736847</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>0.29920000000000008</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>0.20789473684210524</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>0.21579473684210529</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>0.22176315789473677</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>0.22226315789473688</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>0.2255421052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>0.23942631578947365</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>0.24773684210526314</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>0.22190000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>0.2399052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>0.19106842105263153</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>0.18084210526315786</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>0.18966842105263157</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>0.18678421052631575</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>0.18533684210526316</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>0.19818421052631577</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>0.21302105263157892</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>0.19688947368421053</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>0.16107894736842107</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>8.1352631578947399E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>0.13745263157894741</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>0.14168421052631586</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>0.15696842105263165</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>0.16355263157894742</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>0.15624210526315796</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>0.16369473684210531</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>0.15532631578947378</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>0.10332105263157904</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>4.8878947368421098E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>0.10045263157894742</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>0.14132631578947372</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>0.15364736842105267</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>0.16876315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>0.17651052631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>0.16562105263157897</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>0.16760000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>0.17297368421052636</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>0.11899473684210531</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>7.6878947368421074E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>6.5389473684210553E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>8.4963157894736852E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>0.11166842105263161</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>0.1562421052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>0.1690526315789474</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>0.15199473684210529</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>0.14162631578947368</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>0.16582105263157895</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>0.12109473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>7.3563157894736872E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>5.9336842105263167E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="313">
-                        <c:v>8.3352631578947387E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="314">
-                        <c:v>0.10330526315789475</c:v>
-                      </c:pt>
-                      <c:pt idx="315">
-                        <c:v>0.13217894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="316">
-                        <c:v>0.14032631578947372</c:v>
-                      </c:pt>
-                      <c:pt idx="317">
-                        <c:v>0.12612631578947367</c:v>
-                      </c:pt>
-                      <c:pt idx="318">
-                        <c:v>0.1170578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="319">
-                        <c:v>0.13105789473684212</c:v>
-                      </c:pt>
-                      <c:pt idx="320">
-                        <c:v>0.10530526315789475</c:v>
-                      </c:pt>
-                      <c:pt idx="321">
-                        <c:v>3.4078947368421056E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="322">
-                        <c:v>2.500000000000004E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="323">
-                        <c:v>2.7821052631578958E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="324">
-                        <c:v>0.10642105263157896</c:v>
-                      </c:pt>
-                      <c:pt idx="325">
-                        <c:v>0.19094736842105264</c:v>
-                      </c:pt>
-                      <c:pt idx="326">
-                        <c:v>0.20964736842105267</c:v>
-                      </c:pt>
-                      <c:pt idx="327">
-                        <c:v>0.20765263157894734</c:v>
-                      </c:pt>
-                      <c:pt idx="328">
-                        <c:v>0.16605263157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="329">
-                        <c:v>0.16047894736842103</c:v>
-                      </c:pt>
-                      <c:pt idx="330">
-                        <c:v>0.15348421052631575</c:v>
-                      </c:pt>
-                      <c:pt idx="331">
-                        <c:v>0.10368947368421046</c:v>
-                      </c:pt>
-                      <c:pt idx="332">
-                        <c:v>8.0189473684210463E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="333">
-                        <c:v>0.12604210526315784</c:v>
-                      </c:pt>
-                      <c:pt idx="334">
-                        <c:v>0.15421578947368414</c:v>
-                      </c:pt>
-                      <c:pt idx="335">
-                        <c:v>0.19638421052631574</c:v>
-                      </c:pt>
-                      <c:pt idx="336">
-                        <c:v>0.20772105263157889</c:v>
-                      </c:pt>
-                      <c:pt idx="337">
-                        <c:v>0.20296315789473679</c:v>
-                      </c:pt>
-                      <c:pt idx="338">
-                        <c:v>0.19001578947368414</c:v>
-                      </c:pt>
-                      <c:pt idx="339">
-                        <c:v>0.19802105263157888</c:v>
-                      </c:pt>
-                      <c:pt idx="340">
-                        <c:v>0.21043684210526312</c:v>
-                      </c:pt>
-                      <c:pt idx="341">
-                        <c:v>0.17257368421052621</c:v>
-                      </c:pt>
-                      <c:pt idx="342">
-                        <c:v>0.18772631578947366</c:v>
-                      </c:pt>
-                      <c:pt idx="343">
-                        <c:v>0.12553157894736836</c:v>
-                      </c:pt>
-                      <c:pt idx="344">
-                        <c:v>0.12125789473684206</c:v>
-                      </c:pt>
-                      <c:pt idx="345">
-                        <c:v>0.1520947368421052</c:v>
-                      </c:pt>
-                      <c:pt idx="346">
-                        <c:v>0.17032631578947366</c:v>
-                      </c:pt>
-                      <c:pt idx="347">
-                        <c:v>0.18355263157894733</c:v>
-                      </c:pt>
-                      <c:pt idx="348">
-                        <c:v>0.17789999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="349">
-                        <c:v>0.1731842105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="350">
-                        <c:v>0.17473684210526308</c:v>
-                      </c:pt>
-                      <c:pt idx="351">
-                        <c:v>0.14748421052631575</c:v>
-                      </c:pt>
-                      <c:pt idx="352">
-                        <c:v>0.1272157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="353">
-                        <c:v>0.13415263157894738</c:v>
-                      </c:pt>
-                      <c:pt idx="354">
-                        <c:v>0.15592631578947366</c:v>
-                      </c:pt>
-                      <c:pt idx="355">
-                        <c:v>0.17272105263157894</c:v>
-                      </c:pt>
-                      <c:pt idx="356">
-                        <c:v>0.17527894736842101</c:v>
-                      </c:pt>
-                      <c:pt idx="357">
-                        <c:v>0.17298947368421055</c:v>
-                      </c:pt>
-                      <c:pt idx="358">
-                        <c:v>0.16498421052631576</c:v>
-                      </c:pt>
-                      <c:pt idx="359">
-                        <c:v>0.17577894736842112</c:v>
-                      </c:pt>
-                      <c:pt idx="360">
-                        <c:v>0.17897894736842107</c:v>
-                      </c:pt>
-                      <c:pt idx="361">
-                        <c:v>0.13097368421052633</c:v>
-                      </c:pt>
-                      <c:pt idx="362">
-                        <c:v>0.11383684210526314</c:v>
-                      </c:pt>
-                      <c:pt idx="363">
-                        <c:v>6.5584210526315759E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="364">
-                        <c:v>0.13300526315789474</c:v>
-                      </c:pt>
-                      <c:pt idx="365">
-                        <c:v>0.16937368421052632</c:v>
-                      </c:pt>
-                      <c:pt idx="366">
-                        <c:v>0.17962631578947366</c:v>
-                      </c:pt>
-                      <c:pt idx="367">
-                        <c:v>0.17938947368421049</c:v>
-                      </c:pt>
-                      <c:pt idx="368">
-                        <c:v>0.16675789473684216</c:v>
-                      </c:pt>
-                      <c:pt idx="369">
-                        <c:v>0.17281052631578953</c:v>
-                      </c:pt>
-                      <c:pt idx="370">
-                        <c:v>0.16245789473684216</c:v>
-                      </c:pt>
-                      <c:pt idx="371">
-                        <c:v>0.12297894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="372">
-                        <c:v>0.10956842105263155</c:v>
-                      </c:pt>
-                      <c:pt idx="373">
-                        <c:v>0.128678947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="374">
-                        <c:v>0.16635263157894734</c:v>
-                      </c:pt>
-                      <c:pt idx="375">
-                        <c:v>0.18101052631578946</c:v>
-                      </c:pt>
-                      <c:pt idx="376">
-                        <c:v>0.19298947368421046</c:v>
-                      </c:pt>
-                      <c:pt idx="377">
-                        <c:v>0.18088421052631576</c:v>
-                      </c:pt>
-                      <c:pt idx="378">
-                        <c:v>0.16828947368421049</c:v>
-                      </c:pt>
-                      <c:pt idx="379">
-                        <c:v>0.17169999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="380">
-                        <c:v>0.17104736842105264</c:v>
-                      </c:pt>
-                      <c:pt idx="381">
-                        <c:v>0.14995263157894731</c:v>
-                      </c:pt>
-                      <c:pt idx="382">
-                        <c:v>0.19929473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="383">
-                        <c:v>0.14622631578947373</c:v>
-                      </c:pt>
-                      <c:pt idx="384">
-                        <c:v>0.15917894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="385">
-                        <c:v>0.19060526315789475</c:v>
-                      </c:pt>
-                      <c:pt idx="386">
-                        <c:v>0.19353157894736847</c:v>
-                      </c:pt>
-                      <c:pt idx="387">
-                        <c:v>0.17513684210526315</c:v>
-                      </c:pt>
-                      <c:pt idx="388">
-                        <c:v>0.14163684210526314</c:v>
-                      </c:pt>
-                      <c:pt idx="389">
-                        <c:v>0.20822631578947362</c:v>
-                      </c:pt>
-                      <c:pt idx="390">
-                        <c:v>0.29688421052631581</c:v>
-                      </c:pt>
-                      <c:pt idx="391">
-                        <c:v>0.32339473684210523</c:v>
-                      </c:pt>
-                      <c:pt idx="392">
-                        <c:v>0.21312105263157899</c:v>
-                      </c:pt>
-                      <c:pt idx="393">
-                        <c:v>0.13367894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="394">
-                        <c:v>0.26401578947368426</c:v>
-                      </c:pt>
-                      <c:pt idx="395">
-                        <c:v>0.39627894736842101</c:v>
-                      </c:pt>
-                      <c:pt idx="396">
-                        <c:v>0.46685789473684214</c:v>
-                      </c:pt>
-                      <c:pt idx="397">
-                        <c:v>0.46474736842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="398">
-                        <c:v>0.43931052631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="399">
-                        <c:v>0.39865789473684216</c:v>
-                      </c:pt>
-                      <c:pt idx="400">
-                        <c:v>0.3875157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="401">
-                        <c:v>0.71425263157894736</c:v>
-                      </c:pt>
-                      <c:pt idx="402">
-                        <c:v>1.0078</c:v>
-                      </c:pt>
-                      <c:pt idx="403">
-                        <c:v>1.0350947368421053</c:v>
-                      </c:pt>
-                      <c:pt idx="404">
-                        <c:v>0.97387894736842118</c:v>
-                      </c:pt>
-                      <c:pt idx="405">
-                        <c:v>0.96029999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="406">
-                        <c:v>1.0244789473684208</c:v>
-                      </c:pt>
-                      <c:pt idx="407">
-                        <c:v>1.0710263157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="408">
-                        <c:v>1.2811368421052631</c:v>
-                      </c:pt>
-                      <c:pt idx="409">
-                        <c:v>1.2892157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="410">
-                        <c:v>1.2102684210526318</c:v>
-                      </c:pt>
-                      <c:pt idx="411">
-                        <c:v>1.205357894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="412">
-                        <c:v>1.1897368421052634</c:v>
-                      </c:pt>
-                      <c:pt idx="413">
-                        <c:v>1.0712526315789475</c:v>
-                      </c:pt>
-                      <c:pt idx="414">
-                        <c:v>1.4036157894736843</c:v>
-                      </c:pt>
-                      <c:pt idx="415">
-                        <c:v>1.5892157894736845</c:v>
-                      </c:pt>
-                      <c:pt idx="416">
-                        <c:v>1.5732157894736845</c:v>
-                      </c:pt>
-                      <c:pt idx="417">
-                        <c:v>1.5654894736842104</c:v>
-                      </c:pt>
-                      <c:pt idx="418">
-                        <c:v>1.5664789473684213</c:v>
-                      </c:pt>
-                      <c:pt idx="419">
-                        <c:v>1.5459947368421052</c:v>
-                      </c:pt>
-                      <c:pt idx="420">
-                        <c:v>1.7124578947368418</c:v>
-                      </c:pt>
-                      <c:pt idx="421">
-                        <c:v>1.7309789473684212</c:v>
-                      </c:pt>
-                      <c:pt idx="422">
-                        <c:v>1.6304631578947371</c:v>
-                      </c:pt>
-                      <c:pt idx="423">
-                        <c:v>1.6250789473684211</c:v>
-                      </c:pt>
-                      <c:pt idx="424">
-                        <c:v>1.6087789473684215</c:v>
-                      </c:pt>
-                      <c:pt idx="425">
-                        <c:v>1.5380421052631583</c:v>
-                      </c:pt>
-                      <c:pt idx="426">
-                        <c:v>1.7006894736842104</c:v>
-                      </c:pt>
-                      <c:pt idx="427">
-                        <c:v>1.9351105263157895</c:v>
-                      </c:pt>
-                      <c:pt idx="428">
-                        <c:v>1.8606789473684209</c:v>
-                      </c:pt>
-                      <c:pt idx="429">
-                        <c:v>1.833415789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="430">
-                        <c:v>1.8269631578947367</c:v>
-                      </c:pt>
-                      <c:pt idx="431">
-                        <c:v>1.8274157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="432">
-                        <c:v>1.7736684210526317</c:v>
-                      </c:pt>
-                      <c:pt idx="433">
-                        <c:v>2.357373684210526</c:v>
-                      </c:pt>
-                      <c:pt idx="434">
-                        <c:v>2.2619157894736843</c:v>
-                      </c:pt>
-                      <c:pt idx="435">
-                        <c:v>2.2485157894736845</c:v>
-                      </c:pt>
-                      <c:pt idx="436">
-                        <c:v>2.2430368421052633</c:v>
-                      </c:pt>
-                      <c:pt idx="437">
-                        <c:v>2.2411052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="438">
-                        <c:v>2.2206684210526313</c:v>
-                      </c:pt>
-                      <c:pt idx="439">
-                        <c:v>2.1397263157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="440">
-                        <c:v>2.1808315789473682</c:v>
-                      </c:pt>
-                      <c:pt idx="441">
-                        <c:v>2.1954842105263155</c:v>
-                      </c:pt>
-                      <c:pt idx="442">
-                        <c:v>2.1957526315789475</c:v>
-                      </c:pt>
-                      <c:pt idx="443">
-                        <c:v>2.1961842105263161</c:v>
-                      </c:pt>
-                      <c:pt idx="444">
-                        <c:v>2.1957052631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="445">
-                        <c:v>2.0694894736842109</c:v>
-                      </c:pt>
-                      <c:pt idx="446">
-                        <c:v>2.2768894736842107</c:v>
-                      </c:pt>
-                      <c:pt idx="447">
-                        <c:v>2.2449473684210526</c:v>
-                      </c:pt>
-                      <c:pt idx="448">
-                        <c:v>2.2481105263157897</c:v>
-                      </c:pt>
-                      <c:pt idx="449">
-                        <c:v>2.2512052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="450">
-                        <c:v>2.2533210526315792</c:v>
-                      </c:pt>
-                      <c:pt idx="451">
-                        <c:v>2.3819736842105264</c:v>
-                      </c:pt>
-                      <c:pt idx="452">
-                        <c:v>1.7460157894736843</c:v>
-                      </c:pt>
-                      <c:pt idx="453">
-                        <c:v>1.7891947368421053</c:v>
-                      </c:pt>
-                      <c:pt idx="454">
-                        <c:v>1.7977421052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="455">
-                        <c:v>1.7972578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="456">
-                        <c:v>1.7974052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="457">
-                        <c:v>1.828126315789474</c:v>
-                      </c:pt>
-                      <c:pt idx="458">
-                        <c:v>1.9555210526315789</c:v>
-                      </c:pt>
-                      <c:pt idx="459">
-                        <c:v>1.6831052631578944</c:v>
-                      </c:pt>
-                      <c:pt idx="460">
-                        <c:v>1.6576421052631574</c:v>
-                      </c:pt>
-                      <c:pt idx="461">
-                        <c:v>1.6583789473684205</c:v>
-                      </c:pt>
-                      <c:pt idx="462">
-                        <c:v>1.6613263157894731</c:v>
-                      </c:pt>
-                      <c:pt idx="463">
-                        <c:v>1.6657263157894733</c:v>
-                      </c:pt>
-                      <c:pt idx="464">
-                        <c:v>2.0206105263157887</c:v>
-                      </c:pt>
-                      <c:pt idx="465">
-                        <c:v>1.8124578947368422</c:v>
-                      </c:pt>
-                      <c:pt idx="466">
-                        <c:v>1.834936842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="467">
-                        <c:v>1.8272263157894735</c:v>
-                      </c:pt>
-                      <c:pt idx="468">
-                        <c:v>1.8221947368421052</c:v>
-                      </c:pt>
-                      <c:pt idx="469">
-                        <c:v>1.8202999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="470">
-                        <c:v>1.7216789473684211</c:v>
-                      </c:pt>
-                      <c:pt idx="471">
-                        <c:v>1.9755315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="472">
-                        <c:v>1.8132315789473683</c:v>
-                      </c:pt>
-                      <c:pt idx="473">
-                        <c:v>1.8077315789473687</c:v>
-                      </c:pt>
-                      <c:pt idx="474">
-                        <c:v>1.807857894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="475">
-                        <c:v>1.8114105263157896</c:v>
-                      </c:pt>
-                      <c:pt idx="476">
-                        <c:v>1.7918315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="477">
-                        <c:v>1.7659368421052635</c:v>
-                      </c:pt>
-                      <c:pt idx="478">
-                        <c:v>1.7664684210526318</c:v>
-                      </c:pt>
-                      <c:pt idx="479">
-                        <c:v>1.7697684210526319</c:v>
-                      </c:pt>
-                      <c:pt idx="480">
-                        <c:v>1.7649631578947373</c:v>
-                      </c:pt>
-                      <c:pt idx="481">
-                        <c:v>1.7597052631578949</c:v>
-                      </c:pt>
-                      <c:pt idx="482">
-                        <c:v>1.7591736842105268</c:v>
-                      </c:pt>
-                      <c:pt idx="483">
-                        <c:v>1.4004421052631582</c:v>
-                      </c:pt>
-                      <c:pt idx="484">
-                        <c:v>1.3638052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="485">
-                        <c:v>1.3266315789473686</c:v>
-                      </c:pt>
-                      <c:pt idx="486">
-                        <c:v>1.3303368421052633</c:v>
-                      </c:pt>
-                      <c:pt idx="487">
-                        <c:v>1.3343157894736841</c:v>
-                      </c:pt>
-                      <c:pt idx="488">
-                        <c:v>1.3354315789473687</c:v>
-                      </c:pt>
-                      <c:pt idx="489">
-                        <c:v>1.3301315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="490">
-                        <c:v>1.157752631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="491">
-                        <c:v>1.2089157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="492">
-                        <c:v>1.2140789473684208</c:v>
-                      </c:pt>
-                      <c:pt idx="493">
-                        <c:v>1.2145105263157896</c:v>
-                      </c:pt>
-                      <c:pt idx="494">
-                        <c:v>1.209457894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="495">
-                        <c:v>1.2008368421052629</c:v>
-                      </c:pt>
-                      <c:pt idx="496">
-                        <c:v>1.6289526315789473</c:v>
-                      </c:pt>
-                      <c:pt idx="497">
-                        <c:v>1.6982315789473688</c:v>
-                      </c:pt>
-                      <c:pt idx="498">
-                        <c:v>1.6897210526315793</c:v>
-                      </c:pt>
-                      <c:pt idx="499">
-                        <c:v>1.6914052631578953</c:v>
-                      </c:pt>
-                      <c:pt idx="500">
-                        <c:v>1.6949789473684218</c:v>
-                      </c:pt>
-                      <c:pt idx="501">
-                        <c:v>1.6994842105263164</c:v>
-                      </c:pt>
-                      <c:pt idx="502">
-                        <c:v>2.0029210526315793</c:v>
-                      </c:pt>
-                      <c:pt idx="503">
-                        <c:v>2.1059157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="504">
-                        <c:v>2.1250105263157892</c:v>
-                      </c:pt>
-                      <c:pt idx="505">
-                        <c:v>2.1191999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="506">
-                        <c:v>2.1145894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="507">
-                        <c:v>2.1135947368421055</c:v>
-                      </c:pt>
-                      <c:pt idx="508">
-                        <c:v>2.1101894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="509">
-                        <c:v>2.6418473684210526</c:v>
-                      </c:pt>
-                      <c:pt idx="510">
-                        <c:v>2.5965157894736843</c:v>
-                      </c:pt>
-                      <c:pt idx="511">
-                        <c:v>2.5912578947368425</c:v>
-                      </c:pt>
-                      <c:pt idx="512">
-                        <c:v>2.5964631578947373</c:v>
-                      </c:pt>
-                      <c:pt idx="513">
-                        <c:v>2.6112473684210524</c:v>
-                      </c:pt>
-                      <c:pt idx="514">
-                        <c:v>2.6139263157894739</c:v>
-                      </c:pt>
-                      <c:pt idx="515">
-                        <c:v>2.0218000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="516">
-                        <c:v>1.9689052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="517">
-                        <c:v>1.9958315789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="518">
-                        <c:v>1.9998368421052632</c:v>
-                      </c:pt>
-                      <c:pt idx="519">
-                        <c:v>1.9967578947368425</c:v>
-                      </c:pt>
-                      <c:pt idx="520">
-                        <c:v>1.9905894736842111</c:v>
-                      </c:pt>
-                      <c:pt idx="521">
-                        <c:v>2.5705</c:v>
-                      </c:pt>
-                      <c:pt idx="522">
-                        <c:v>2.2754263157894741</c:v>
-                      </c:pt>
-                      <c:pt idx="523">
-                        <c:v>2.245257894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="524">
-                        <c:v>2.2493684210526319</c:v>
-                      </c:pt>
-                      <c:pt idx="525">
-                        <c:v>2.2532999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="526">
-                        <c:v>2.2554368421052633</c:v>
-                      </c:pt>
-                      <c:pt idx="527">
-                        <c:v>2.2537894736842112</c:v>
-                      </c:pt>
-                      <c:pt idx="528">
-                        <c:v>1.7765578947368419</c:v>
-                      </c:pt>
-                      <c:pt idx="529">
-                        <c:v>1.7924999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="530">
-                        <c:v>1.7965684210526316</c:v>
-                      </c:pt>
-                      <c:pt idx="531">
-                        <c:v>1.7894631578947369</c:v>
-                      </c:pt>
-                      <c:pt idx="532">
-                        <c:v>1.7747473684210526</c:v>
-                      </c:pt>
-                      <c:pt idx="533">
-                        <c:v>1.7764947368421051</c:v>
-                      </c:pt>
-                      <c:pt idx="534">
-                        <c:v>2.4951263157894736</c:v>
-                      </c:pt>
-                      <c:pt idx="535">
-                        <c:v>2.4586105263157898</c:v>
-                      </c:pt>
-                      <c:pt idx="536">
-                        <c:v>2.4315368421052632</c:v>
-                      </c:pt>
-                      <c:pt idx="537">
-                        <c:v>2.4307789473684212</c:v>
-                      </c:pt>
-                      <c:pt idx="538">
-                        <c:v>2.4343789473684208</c:v>
-                      </c:pt>
-                      <c:pt idx="539">
-                        <c:v>2.4335526315789471</c:v>
-                      </c:pt>
-                      <c:pt idx="540">
-                        <c:v>2.1554105263157899</c:v>
-                      </c:pt>
-                      <c:pt idx="541">
-                        <c:v>2.3035000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="542">
-                        <c:v>2.3252210526315791</c:v>
-                      </c:pt>
-                      <c:pt idx="543">
-                        <c:v>2.3210999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="544">
-                        <c:v>2.316789473684211</c:v>
-                      </c:pt>
-                      <c:pt idx="545">
-                        <c:v>2.3141157894736848</c:v>
-                      </c:pt>
-                      <c:pt idx="546">
-                        <c:v>2.3252157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="547">
-                        <c:v>2.7411315789473689</c:v>
-                      </c:pt>
-                      <c:pt idx="548">
-                        <c:v>2.6948736842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="549">
-                        <c:v>2.6846157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="550">
-                        <c:v>2.6854631578947363</c:v>
-                      </c:pt>
-                      <c:pt idx="551">
-                        <c:v>2.6939052631578946</c:v>
-                      </c:pt>
-                      <c:pt idx="552">
-                        <c:v>2.6937789473684206</c:v>
-                      </c:pt>
-                      <c:pt idx="553">
-                        <c:v>2.1477421052631578</c:v>
-                      </c:pt>
-                      <c:pt idx="554">
-                        <c:v>2.1876631578947365</c:v>
-                      </c:pt>
-                      <c:pt idx="555">
-                        <c:v>2.1984421052631578</c:v>
-                      </c:pt>
-                      <c:pt idx="556">
-                        <c:v>2.1946105263157891</c:v>
-                      </c:pt>
-                      <c:pt idx="557">
-                        <c:v>2.1919999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="558">
-                        <c:v>2.1915947368421045</c:v>
-                      </c:pt>
-                      <c:pt idx="559">
-                        <c:v>1.5380999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="560">
-                        <c:v>1.727663157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="561">
-                        <c:v>1.7165736842105261</c:v>
-                      </c:pt>
-                      <c:pt idx="562">
-                        <c:v>1.7233105263157891</c:v>
-                      </c:pt>
-                      <c:pt idx="563">
-                        <c:v>1.7348263157894734</c:v>
-                      </c:pt>
-                      <c:pt idx="564">
-                        <c:v>1.7405105263157894</c:v>
-                      </c:pt>
-                      <c:pt idx="565">
-                        <c:v>1.7302947368421049</c:v>
-                      </c:pt>
-                      <c:pt idx="566">
-                        <c:v>1.1230947368421051</c:v>
-                      </c:pt>
-                      <c:pt idx="567">
-                        <c:v>1.2094736842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="568">
-                        <c:v>1.2297157894736841</c:v>
-                      </c:pt>
-                      <c:pt idx="569">
-                        <c:v>1.2323473684210529</c:v>
-                      </c:pt>
-                      <c:pt idx="570">
-                        <c:v>1.2245526315789477</c:v>
-                      </c:pt>
-                      <c:pt idx="571">
-                        <c:v>1.2293368421052635</c:v>
-                      </c:pt>
-                      <c:pt idx="572">
-                        <c:v>1.693263157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="573">
-                        <c:v>1.7740157894736845</c:v>
-                      </c:pt>
-                      <c:pt idx="574">
-                        <c:v>1.7778894736842108</c:v>
-                      </c:pt>
-                      <c:pt idx="575">
-                        <c:v>1.788642105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="576">
-                        <c:v>1.7913947368421055</c:v>
-                      </c:pt>
-                      <c:pt idx="577">
-                        <c:v>1.7909473684210533</c:v>
-                      </c:pt>
-                      <c:pt idx="578">
-                        <c:v>1.756126315789474</c:v>
-                      </c:pt>
-                      <c:pt idx="579">
-                        <c:v>1.7705105263157894</c:v>
-                      </c:pt>
-                      <c:pt idx="580">
-                        <c:v>1.8815578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="581">
-                        <c:v>1.8825210526315788</c:v>
-                      </c:pt>
-                      <c:pt idx="582">
-                        <c:v>1.8735947368421053</c:v>
-                      </c:pt>
-                      <c:pt idx="583">
-                        <c:v>1.8690842105263157</c:v>
-                      </c:pt>
-                      <c:pt idx="584">
-                        <c:v>1.8502052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="585">
-                        <c:v>2.6681631578947367</c:v>
-                      </c:pt>
-                      <c:pt idx="586">
-                        <c:v>2.8583157894736844</c:v>
-                      </c:pt>
-                      <c:pt idx="587">
-                        <c:v>2.8459631578947366</c:v>
-                      </c:pt>
-                      <c:pt idx="588">
-                        <c:v>2.8463368421052628</c:v>
-                      </c:pt>
-                      <c:pt idx="589">
-                        <c:v>2.8463000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="590">
-                        <c:v>2.8323736842105269</c:v>
-                      </c:pt>
-                      <c:pt idx="591">
-                        <c:v>1.7252947368421057</c:v>
-                      </c:pt>
-                      <c:pt idx="592">
-                        <c:v>2.184078947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="593">
-                        <c:v>2.291994736842105</c:v>
-                      </c:pt>
-                      <c:pt idx="594">
-                        <c:v>2.2939263157894736</c:v>
-                      </c:pt>
-                      <c:pt idx="595">
-                        <c:v>2.2929473684210531</c:v>
-                      </c:pt>
-                      <c:pt idx="596">
-                        <c:v>2.2915947368421059</c:v>
-                      </c:pt>
-                      <c:pt idx="597">
-                        <c:v>2.2896473684210537</c:v>
-                      </c:pt>
-                      <c:pt idx="598">
-                        <c:v>1.8555000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="599">
-                        <c:v>2.380936842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="600">
-                        <c:v>2.3851473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="601">
-                        <c:v>2.3891684210526316</c:v>
-                      </c:pt>
-                      <c:pt idx="602">
-                        <c:v>2.3904368421052631</c:v>
-                      </c:pt>
-                      <c:pt idx="603">
-                        <c:v>2.3856842105263159</c:v>
-                      </c:pt>
-                      <c:pt idx="604">
-                        <c:v>1.1914052631578951</c:v>
-                      </c:pt>
-                      <c:pt idx="605">
-                        <c:v>1.479457894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="606">
-                        <c:v>1.6248684210526314</c:v>
-                      </c:pt>
-                      <c:pt idx="607">
-                        <c:v>1.6398263157894739</c:v>
-                      </c:pt>
-                      <c:pt idx="608">
-                        <c:v>1.6427578947368422</c:v>
-                      </c:pt>
-                      <c:pt idx="609">
-                        <c:v>1.6429894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="610">
-                        <c:v>1.6421421052631575</c:v>
-                      </c:pt>
-                      <c:pt idx="611">
-                        <c:v>1.450921052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="612">
-                        <c:v>1.8306052631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="613">
-                        <c:v>1.8277684210526313</c:v>
-                      </c:pt>
-                      <c:pt idx="614">
-                        <c:v>1.8283947368421052</c:v>
-                      </c:pt>
-                      <c:pt idx="615">
-                        <c:v>1.8292157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="616">
-                        <c:v>1.8272578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="617">
-                        <c:v>1.5962684210526319</c:v>
-                      </c:pt>
-                      <c:pt idx="618">
-                        <c:v>1.7026421052631584</c:v>
-                      </c:pt>
-                      <c:pt idx="619">
-                        <c:v>1.9159105263157896</c:v>
-                      </c:pt>
-                      <c:pt idx="620">
-                        <c:v>1.935152631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="621">
-                        <c:v>1.94031052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="622">
-                        <c:v>1.9391052631578953</c:v>
-                      </c:pt>
-                      <c:pt idx="623">
-                        <c:v>1.9265631578947378</c:v>
-                      </c:pt>
-                      <c:pt idx="624">
-                        <c:v>1.4110052631578947</c:v>
-                      </c:pt>
-                      <c:pt idx="625">
-                        <c:v>1.9771684210526312</c:v>
-                      </c:pt>
-                      <c:pt idx="626">
-                        <c:v>1.9992894736842104</c:v>
-                      </c:pt>
-                      <c:pt idx="627">
-                        <c:v>2.0073631578947366</c:v>
-                      </c:pt>
-                      <c:pt idx="628">
-                        <c:v>2.009231578947368</c:v>
-                      </c:pt>
-                      <c:pt idx="629">
-                        <c:v>2.0064526315789468</c:v>
-                      </c:pt>
-                      <c:pt idx="630">
-                        <c:v>1.4772684210526312</c:v>
-                      </c:pt>
-                      <c:pt idx="631">
-                        <c:v>1.7340526315789471</c:v>
-                      </c:pt>
-                      <c:pt idx="632">
-                        <c:v>1.8917789473684208</c:v>
-                      </c:pt>
-                      <c:pt idx="633">
-                        <c:v>1.9658842105263157</c:v>
-                      </c:pt>
-                      <c:pt idx="634">
-                        <c:v>1.9817578947368419</c:v>
-                      </c:pt>
-                      <c:pt idx="635">
-                        <c:v>1.9812999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="636">
-                        <c:v>1.978931578947368</c:v>
-                      </c:pt>
-                      <c:pt idx="637">
-                        <c:v>1.2352473684210525</c:v>
-                      </c:pt>
-                      <c:pt idx="638">
-                        <c:v>2.076963157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="639">
-                        <c:v>2.147426315789474</c:v>
-                      </c:pt>
-                      <c:pt idx="640">
-                        <c:v>2.1455526315789477</c:v>
-                      </c:pt>
-                      <c:pt idx="641">
-                        <c:v>2.1450473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="642">
-                        <c:v>2.137705263157895</c:v>
-                      </c:pt>
-                      <c:pt idx="643">
-                        <c:v>2.0474157894736846</c:v>
-                      </c:pt>
-                      <c:pt idx="644">
-                        <c:v>1.3603631578947371</c:v>
-                      </c:pt>
-                      <c:pt idx="645">
-                        <c:v>2.4548473684210528</c:v>
-                      </c:pt>
-                      <c:pt idx="646">
-                        <c:v>2.4904526315789477</c:v>
-                      </c:pt>
-                      <c:pt idx="647">
-                        <c:v>2.5014263157894741</c:v>
-                      </c:pt>
-                      <c:pt idx="648">
-                        <c:v>2.5058421052631581</c:v>
-                      </c:pt>
-                      <c:pt idx="649">
-                        <c:v>2.4939736842105269</c:v>
-                      </c:pt>
-                      <c:pt idx="650">
-                        <c:v>1.7275473684210529</c:v>
-                      </c:pt>
-                      <c:pt idx="651">
-                        <c:v>1.7158526315789473</c:v>
-                      </c:pt>
-                      <c:pt idx="652">
-                        <c:v>2.3464052631578944</c:v>
-                      </c:pt>
-                      <c:pt idx="653">
-                        <c:v>2.4167052631578949</c:v>
-                      </c:pt>
-                      <c:pt idx="654">
-                        <c:v>2.4353421052631581</c:v>
-                      </c:pt>
-                      <c:pt idx="655">
-                        <c:v>2.4408736842105263</c:v>
-                      </c:pt>
-                      <c:pt idx="656">
-                        <c:v>2.4157578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="657">
-                        <c:v>1.3483315789473682</c:v>
-                      </c:pt>
-                      <c:pt idx="658">
-                        <c:v>1.2908947368421053</c:v>
-                      </c:pt>
-                      <c:pt idx="659">
-                        <c:v>2.3697052631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="660">
-                        <c:v>2.3968473684210529</c:v>
-                      </c:pt>
-                      <c:pt idx="661">
-                        <c:v>2.4008368421052628</c:v>
-                      </c:pt>
-                      <c:pt idx="662">
-                        <c:v>2.4008421052631577</c:v>
-                      </c:pt>
-                      <c:pt idx="663">
-                        <c:v>2.3631684210526318</c:v>
-                      </c:pt>
-                      <c:pt idx="664">
-                        <c:v>1.2267263157894734</c:v>
-                      </c:pt>
-                      <c:pt idx="665">
-                        <c:v>1.673915789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="666">
-                        <c:v>2.241452631578948</c:v>
-                      </c:pt>
-                      <c:pt idx="667">
-                        <c:v>2.2797894736842106</c:v>
-                      </c:pt>
-                      <c:pt idx="668">
-                        <c:v>2.284715789473684</c:v>
-                      </c:pt>
-                      <c:pt idx="669">
-                        <c:v>2.2837052631578945</c:v>
-                      </c:pt>
-                      <c:pt idx="670">
-                        <c:v>2.1244631578947368</c:v>
-                      </c:pt>
-                      <c:pt idx="671">
-                        <c:v>1.4268210526315794</c:v>
-                      </c:pt>
-                      <c:pt idx="672">
-                        <c:v>2.3120421052631586</c:v>
-                      </c:pt>
-                      <c:pt idx="673">
-                        <c:v>2.5485473684210529</c:v>
-                      </c:pt>
-                      <c:pt idx="674">
-                        <c:v>2.5472578947368425</c:v>
-                      </c:pt>
-                      <c:pt idx="675">
-                        <c:v>2.5448000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="676">
-                        <c:v>2.5414684210526315</c:v>
-                      </c:pt>
-                      <c:pt idx="677">
-                        <c:v>2.5020789473684211</c:v>
-                      </c:pt>
-                      <c:pt idx="678">
-                        <c:v>1.4652473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="679">
-                        <c:v>2.3353263157894739</c:v>
-                      </c:pt>
-                      <c:pt idx="680">
-                        <c:v>2.3620631578947369</c:v>
-                      </c:pt>
-                      <c:pt idx="681">
-                        <c:v>2.3649684210526321</c:v>
-                      </c:pt>
-                      <c:pt idx="682">
-                        <c:v>2.3659368421052638</c:v>
-                      </c:pt>
-                      <c:pt idx="683">
-                        <c:v>2.3654736842105266</c:v>
-                      </c:pt>
-                      <c:pt idx="684">
-                        <c:v>1.874021052631579</c:v>
-                      </c:pt>
-                      <c:pt idx="685">
-                        <c:v>2.6253578947368421</c:v>
-                      </c:pt>
-                      <c:pt idx="686">
-                        <c:v>2.9290000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="687">
-                        <c:v>2.9411157894736837</c:v>
-                      </c:pt>
-                      <c:pt idx="688">
-                        <c:v>2.9421105263157896</c:v>
-                      </c:pt>
-                      <c:pt idx="689">
-                        <c:v>2.9419842105263156</c:v>
-                      </c:pt>
-                      <c:pt idx="690">
-                        <c:v>2.9307210526315783</c:v>
-                      </c:pt>
-                      <c:pt idx="691">
-                        <c:v>1.9718263157894733</c:v>
-                      </c:pt>
-                      <c:pt idx="692">
-                        <c:v>2.7484315789473679</c:v>
-                      </c:pt>
-                      <c:pt idx="693">
-                        <c:v>2.8259210526315788</c:v>
-                      </c:pt>
-                      <c:pt idx="694">
-                        <c:v>2.8379789473684212</c:v>
-                      </c:pt>
-                      <c:pt idx="695">
-                        <c:v>2.8409473684210518</c:v>
-                      </c:pt>
-                      <c:pt idx="696">
-                        <c:v>2.8446789473684206</c:v>
-                      </c:pt>
-                      <c:pt idx="697">
-                        <c:v>2.8110105263157892</c:v>
-                      </c:pt>
-                      <c:pt idx="698">
-                        <c:v>2.7417894736842103</c:v>
-                      </c:pt>
-                      <c:pt idx="699">
-                        <c:v>2.9137315789473686</c:v>
-                      </c:pt>
-                      <c:pt idx="700">
-                        <c:v>2.9863789473684212</c:v>
-                      </c:pt>
-                      <c:pt idx="701">
-                        <c:v>3.0071263157894741</c:v>
-                      </c:pt>
-                      <c:pt idx="702">
-                        <c:v>3.0082684210526311</c:v>
-                      </c:pt>
-                      <c:pt idx="703">
-                        <c:v>3.0089368421052627</c:v>
-                      </c:pt>
-                      <c:pt idx="704">
-                        <c:v>1.7535157894736839</c:v>
-                      </c:pt>
-                      <c:pt idx="705">
-                        <c:v>2.0241526315789473</c:v>
-                      </c:pt>
-                      <c:pt idx="706">
-                        <c:v>2.1089368421052637</c:v>
-                      </c:pt>
-                      <c:pt idx="707">
-                        <c:v>2.1208473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="708">
-                        <c:v>2.126863157894737</c:v>
-                      </c:pt>
-                      <c:pt idx="709">
-                        <c:v>2.1311894736842105</c:v>
-                      </c:pt>
-                      <c:pt idx="710">
-                        <c:v>2.1425894736842102</c:v>
-                      </c:pt>
-                      <c:pt idx="711">
-                        <c:v>1.7526157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="712">
-                        <c:v>1.7894368421052633</c:v>
-                      </c:pt>
-                      <c:pt idx="713">
-                        <c:v>1.8674684210526318</c:v>
-                      </c:pt>
-                      <c:pt idx="714">
-                        <c:v>1.9430894736842101</c:v>
-                      </c:pt>
-                      <c:pt idx="715">
-                        <c:v>1.9483157894736842</c:v>
-                      </c:pt>
-                      <c:pt idx="716">
-                        <c:v>1.9430105263157895</c:v>
-                      </c:pt>
-                      <c:pt idx="717">
-                        <c:v>1.2457052631578951</c:v>
-                      </c:pt>
-                      <c:pt idx="718">
-                        <c:v>1.4369736842105265</c:v>
-                      </c:pt>
-                      <c:pt idx="719">
-                        <c:v>1.4668105263157898</c:v>
-                      </c:pt>
-                      <c:pt idx="720">
-                        <c:v>1.4861578947368423</c:v>
-                      </c:pt>
-                      <c:pt idx="721">
-                        <c:v>1.5114052631578954</c:v>
-                      </c:pt>
-                      <c:pt idx="722">
-                        <c:v>1.528531578947369</c:v>
-                      </c:pt>
-                      <c:pt idx="723">
-                        <c:v>1.5020947368421058</c:v>
-                      </c:pt>
-                      <c:pt idx="724">
-                        <c:v>1.2598631578947368</c:v>
-                      </c:pt>
-                      <c:pt idx="725">
-                        <c:v>1.2914842105263158</c:v>
-                      </c:pt>
-                      <c:pt idx="726">
-                        <c:v>1.6131894736842105</c:v>
-                      </c:pt>
-                      <c:pt idx="727">
-                        <c:v>1.6530842105263157</c:v>
-                      </c:pt>
-                      <c:pt idx="728">
-                        <c:v>1.6570105263157895</c:v>
-                      </c:pt>
-                      <c:pt idx="729">
-                        <c:v>1.6468315789473686</c:v>
-                      </c:pt>
-                      <c:pt idx="730">
-                        <c:v>1.2240736842105264</c:v>
-                      </c:pt>
-                      <c:pt idx="731">
-                        <c:v>1.5300684210526316</c:v>
-                      </c:pt>
-                      <c:pt idx="732">
-                        <c:v>1.5592842105263156</c:v>
-                      </c:pt>
-                      <c:pt idx="733">
-                        <c:v>1.5093631578947366</c:v>
-                      </c:pt>
-                      <c:pt idx="734">
-                        <c:v>1.5207631578947367</c:v>
-                      </c:pt>
-                      <c:pt idx="735">
-                        <c:v>1.5584157894736841</c:v>
-                      </c:pt>
-                      <c:pt idx="736">
-                        <c:v>1.4759473684210527</c:v>
-                      </c:pt>
-                      <c:pt idx="737">
-                        <c:v>1.4338526315789473</c:v>
-                      </c:pt>
-                      <c:pt idx="738">
-                        <c:v>1.4332631578947368</c:v>
-                      </c:pt>
-                      <c:pt idx="739">
-                        <c:v>1.5849947368421049</c:v>
-                      </c:pt>
-                      <c:pt idx="740">
-                        <c:v>1.6167315789473682</c:v>
-                      </c:pt>
-                      <c:pt idx="741">
-                        <c:v>1.6066947368421052</c:v>
-                      </c:pt>
-                      <c:pt idx="742">
-                        <c:v>1.5773684210526311</c:v>
-                      </c:pt>
-                      <c:pt idx="743">
-                        <c:v>1.4134315789473679</c:v>
-                      </c:pt>
-                      <c:pt idx="744">
-                        <c:v>1.4055055555555549</c:v>
-                      </c:pt>
-                      <c:pt idx="745">
-                        <c:v>1.170882352941176</c:v>
-                      </c:pt>
-                      <c:pt idx="746">
-                        <c:v>1.2517249999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="747">
-                        <c:v>1.3909733333333327</c:v>
-                      </c:pt>
-                      <c:pt idx="748">
-                        <c:v>1.540671428571428</c:v>
-                      </c:pt>
-                      <c:pt idx="749">
-                        <c:v>1.4131999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="750">
-                        <c:v>0.93976666666666653</c:v>
-                      </c:pt>
-                      <c:pt idx="751">
-                        <c:v>0.90961818181818177</c:v>
-                      </c:pt>
-                      <c:pt idx="752">
-                        <c:v>1.0458199999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="753">
-                        <c:v>1.2300111111111109</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="402416968"/>
+        <c:axId val="402418144"/>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408257256"/>
+        <c:axId val="402416968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9873,7 +9856,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408258432"/>
+        <c:crossAx val="402418144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9881,7 +9864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408258432"/>
+        <c:axId val="402418144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9932,7 +9915,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408257256"/>
+        <c:crossAx val="402416968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10871,8 +10854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
